--- a/已有芯片-模块库汇总.xlsx
+++ b/已有芯片-模块库汇总.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18C283C-CB98-409C-9528-98880D6F22F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EDEEC-E5AC-4D34-BF15-C53B2BDE2873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="1098">
   <si>
     <t>最后更新日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2005,10 +2005,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>转移芯片到元器件盒，尺寸大的放原来塑料盒。颜色标记分类。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2P帽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2814,10 +2810,6 @@
   </si>
   <si>
     <t>EG8010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正弦波逆变器芯片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3210,10 +3202,6 @@
   </si>
   <si>
     <t>芯片品牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好芯片收集</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3299,10 +3287,6 @@
     <t>双路高速/低功耗 17 MHz 轨至轨 I/O 运算放大器</t>
   </si>
   <si>
-    <t>待把毕设中的芯片补充进来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mcp23017</t>
   </si>
   <si>
@@ -4229,10 +4213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2020.9.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>所有分类袋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4425,6 +4405,89 @@
   </si>
   <si>
     <t>不带霍尔线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7705模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI，双差分输入，5V，PGA最大128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用在f407板子上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 纯预驱，鸡肋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADE7953</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带零线电流测量的单相多功能计量IC</t>
+  </si>
+  <si>
+    <t>GY-91模组 贵 小心使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GY521模组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU9250+BMP280 10轴模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS5600磁编码器模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12bit高精度 用于无刷电机开发 贵 小心使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OV2640 FPC 24针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有便宜的卖6块，带FPC插座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INMP411 I2S接口 数字麦克风 模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMS高精度 数字MIC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.12.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>始于2018.3.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无事发生，只不过2020年中，大器件盒快递丢了，有一些芯片模块可能没有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好芯片收集（注：可前往各大芯片官网用筛选器选择）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正弦波发生芯片，产生SPWM，做逆变器用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4432,7 +4495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="82">
+  <fonts count="84">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5103,6 +5166,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -5145,7 +5223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -5541,36 +5619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="8" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color theme="8" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="8" tint="0.59996337778862885"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="double">
@@ -5689,6 +5737,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5698,10 +5792,10 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5711,7 +5805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5947,12 +6041,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5986,223 +6074,244 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="3" borderId="23" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="23" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="23" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="3" borderId="23" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="3" borderId="23" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="3" borderId="23" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="39" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="39" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="39" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="41" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="41" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="41" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6551,50 +6660,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="T55" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="123" customWidth="1"/>
-    <col min="2" max="2" width="4" style="123" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="123" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="123" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="123" customWidth="1"/>
-    <col min="6" max="6" width="4" style="123" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="123" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="123" customWidth="1"/>
-    <col min="9" max="10" width="3.625" style="123" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="123" customWidth="1"/>
-    <col min="12" max="12" width="22.375" style="123" customWidth="1"/>
-    <col min="13" max="13" width="6.25" style="123" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="123" customWidth="1"/>
-    <col min="15" max="15" width="18" style="123" customWidth="1"/>
-    <col min="16" max="16" width="14.875" style="123" customWidth="1"/>
-    <col min="17" max="17" width="12.125" style="123" customWidth="1"/>
-    <col min="18" max="18" width="25.75" style="123" customWidth="1"/>
-    <col min="19" max="20" width="12.125" style="123" customWidth="1"/>
-    <col min="21" max="21" width="21.875" style="123" customWidth="1"/>
-    <col min="22" max="22" width="26.25" style="123" customWidth="1"/>
-    <col min="23" max="23" width="18.25" style="123" customWidth="1"/>
-    <col min="24" max="24" width="39.25" style="123" customWidth="1"/>
-    <col min="25" max="26" width="12.375" style="123" customWidth="1"/>
-    <col min="27" max="27" width="18" style="123" customWidth="1"/>
-    <col min="28" max="28" width="22.25" style="123" customWidth="1"/>
-    <col min="29" max="35" width="12.375" style="123" customWidth="1"/>
-    <col min="36" max="36" width="22.25" style="123" customWidth="1"/>
-    <col min="37" max="37" width="17.625" style="123" customWidth="1"/>
-    <col min="38" max="38" width="36.75" style="123" customWidth="1"/>
-    <col min="39" max="40" width="9" style="123"/>
-    <col min="41" max="41" width="21.5" style="123" customWidth="1"/>
-    <col min="42" max="42" width="15.75" style="123" customWidth="1"/>
-    <col min="43" max="43" width="20.375" style="123" customWidth="1"/>
-    <col min="44" max="44" width="31.25" style="123" customWidth="1"/>
-    <col min="45" max="45" width="56.625" style="123" customWidth="1"/>
-    <col min="46" max="46" width="9" style="123" customWidth="1"/>
-    <col min="47" max="47" width="49.25" style="123" customWidth="1"/>
-    <col min="48" max="16384" width="9" style="123"/>
+    <col min="1" max="1" width="3.625" style="119" customWidth="1"/>
+    <col min="2" max="2" width="4" style="119" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="119" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="119" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="119" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="119" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="119" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="119" customWidth="1"/>
+    <col min="9" max="10" width="3.625" style="119" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="119" customWidth="1"/>
+    <col min="12" max="12" width="22.375" style="119" customWidth="1"/>
+    <col min="13" max="13" width="6.25" style="119" customWidth="1"/>
+    <col min="14" max="14" width="3.625" style="119" customWidth="1"/>
+    <col min="15" max="15" width="18" style="119" customWidth="1"/>
+    <col min="16" max="16" width="14.875" style="119" customWidth="1"/>
+    <col min="17" max="17" width="12.125" style="119" customWidth="1"/>
+    <col min="18" max="18" width="25.75" style="119" customWidth="1"/>
+    <col min="19" max="20" width="12.125" style="119" customWidth="1"/>
+    <col min="21" max="21" width="21.875" style="119" customWidth="1"/>
+    <col min="22" max="22" width="26.25" style="119" customWidth="1"/>
+    <col min="23" max="23" width="18.25" style="119" customWidth="1"/>
+    <col min="24" max="24" width="39.25" style="119" customWidth="1"/>
+    <col min="25" max="25" width="12.375" style="119" customWidth="1"/>
+    <col min="26" max="26" width="27.75" style="119" customWidth="1"/>
+    <col min="27" max="27" width="18" style="119" customWidth="1"/>
+    <col min="28" max="28" width="22.25" style="119" customWidth="1"/>
+    <col min="29" max="29" width="12.375" style="119" customWidth="1"/>
+    <col min="30" max="30" width="19.25" style="119" customWidth="1"/>
+    <col min="31" max="35" width="12.375" style="119" customWidth="1"/>
+    <col min="36" max="36" width="22.25" style="119" customWidth="1"/>
+    <col min="37" max="37" width="17.625" style="119" customWidth="1"/>
+    <col min="38" max="38" width="36.75" style="119" customWidth="1"/>
+    <col min="39" max="40" width="9" style="119"/>
+    <col min="41" max="41" width="21.5" style="119" customWidth="1"/>
+    <col min="42" max="42" width="15.75" style="119" customWidth="1"/>
+    <col min="43" max="43" width="20.375" style="119" customWidth="1"/>
+    <col min="44" max="44" width="31.25" style="119" customWidth="1"/>
+    <col min="45" max="45" width="56.625" style="119" customWidth="1"/>
+    <col min="46" max="46" width="9" style="119" customWidth="1"/>
+    <col min="47" max="47" width="49.25" style="119" customWidth="1"/>
+    <col min="48" max="16384" width="9" style="119"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="24" customHeight="1" thickTop="1" thickBot="1">
@@ -6628,7 +6740,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="148" t="s">
-        <v>422</v>
+        <v>1095</v>
       </c>
       <c r="E2" s="148"/>
       <c r="F2" s="148"/>
@@ -6637,39 +6749,42 @@
       <c r="I2" s="148"/>
       <c r="J2" s="1"/>
       <c r="K2" s="149" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L2" s="150"/>
       <c r="M2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="153" t="s">
-        <v>1032</v>
-      </c>
-      <c r="P2" s="153"/>
+      <c r="N2" s="167" t="s">
+        <v>1093</v>
+      </c>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="166" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="3" spans="1:47" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="158"/>
       <c r="Q3" s="22" t="s">
         <v>5</v>
       </c>
@@ -6682,29 +6797,29 @@
       <c r="T3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="136" t="s">
-        <v>1033</v>
-      </c>
-      <c r="V3" s="136" t="s">
-        <v>1035</v>
+      <c r="U3" s="132" t="s">
+        <v>1028</v>
+      </c>
+      <c r="V3" s="132" t="s">
+        <v>1030</v>
       </c>
       <c r="AC3" s="151" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AD3" s="152"/>
       <c r="AE3" s="143" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AF3" s="143"/>
       <c r="AG3" s="143"/>
       <c r="AH3" s="143"/>
-      <c r="AO3" s="161" t="s">
-        <v>734</v>
-      </c>
-      <c r="AP3" s="162"/>
-      <c r="AQ3" s="162"/>
+      <c r="AO3" s="160" t="s">
+        <v>732</v>
+      </c>
+      <c r="AP3" s="161"/>
+      <c r="AQ3" s="161"/>
       <c r="AR3" s="142" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="AS3" s="143"/>
       <c r="AT3" s="143"/>
@@ -6771,27 +6886,27 @@
       <c r="T4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="136" t="s">
-        <v>1034</v>
-      </c>
-      <c r="V4" s="136" t="s">
-        <v>1036</v>
-      </c>
-      <c r="AC4" s="97" t="s">
-        <v>689</v>
+      <c r="U4" s="132" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V4" s="132" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AC4" s="93" t="s">
+        <v>687</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AE4" s="143"/>
       <c r="AF4" s="143"/>
       <c r="AG4" s="143"/>
       <c r="AH4" s="143"/>
-      <c r="AO4" s="160" t="s">
-        <v>744</v>
-      </c>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
+      <c r="AO4" s="159" t="s">
+        <v>741</v>
+      </c>
+      <c r="AP4" s="159"/>
+      <c r="AQ4" s="159"/>
       <c r="AR4" s="144"/>
       <c r="AS4" s="143"/>
       <c r="AT4" s="143"/>
@@ -6811,7 +6926,7 @@
         <v>181</v>
       </c>
       <c r="E5" s="12">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F5" s="27">
         <v>7</v>
@@ -6834,55 +6949,55 @@
       <c r="L5" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="M5" s="80">
-        <v>69</v>
-      </c>
-      <c r="N5" s="123" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O5" s="123" t="s">
-        <v>445</v>
-      </c>
-      <c r="P5" s="123" t="s">
-        <v>449</v>
+      <c r="M5" s="164">
+        <v>75</v>
+      </c>
+      <c r="N5" s="119" t="s">
+        <v>1063</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>444</v>
+      </c>
+      <c r="P5" s="119" t="s">
+        <v>448</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="25"/>
       <c r="T5" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="U5" s="136" t="s">
-        <v>1037</v>
-      </c>
-      <c r="V5" s="136" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AC5" s="97" t="s">
-        <v>691</v>
+        <v>584</v>
+      </c>
+      <c r="U5" s="132" t="s">
+        <v>1032</v>
+      </c>
+      <c r="V5" s="132" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AC5" s="93" t="s">
+        <v>689</v>
       </c>
       <c r="AD5" s="16" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AE5" s="143"/>
       <c r="AF5" s="143"/>
       <c r="AG5" s="143"/>
       <c r="AH5" s="143"/>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="117" t="s">
-        <v>762</v>
-      </c>
-      <c r="AS5" s="128" t="s">
-        <v>763</v>
-      </c>
-      <c r="AT5" s="117" t="s">
-        <v>764</v>
-      </c>
-      <c r="AU5" s="117"/>
+      <c r="AO5" s="159"/>
+      <c r="AP5" s="159"/>
+      <c r="AQ5" s="159"/>
+      <c r="AR5" s="113" t="s">
+        <v>758</v>
+      </c>
+      <c r="AS5" s="124" t="s">
+        <v>759</v>
+      </c>
+      <c r="AT5" s="113" t="s">
+        <v>760</v>
+      </c>
+      <c r="AU5" s="113"/>
     </row>
     <row r="6" spans="1:47" ht="82.5" thickTop="1" thickBot="1">
       <c r="A6" s="8">
@@ -6898,7 +7013,7 @@
         <v>180</v>
       </c>
       <c r="E6" s="13">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F6" s="14">
         <v>6</v>
@@ -6921,57 +7036,57 @@
       <c r="L6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="79">
-        <v>70</v>
+      <c r="M6" s="165">
+        <v>76</v>
       </c>
       <c r="N6" s="71" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="O6" s="71" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P6" s="71" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T6" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="U6" s="136" t="s">
-        <v>1039</v>
-      </c>
-      <c r="V6" s="136" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AC6" s="97" t="s">
-        <v>693</v>
+        <v>585</v>
+      </c>
+      <c r="U6" s="132" t="s">
+        <v>1034</v>
+      </c>
+      <c r="V6" s="132" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AC6" s="93" t="s">
+        <v>691</v>
       </c>
       <c r="AD6" s="16"/>
       <c r="AE6" s="143"/>
       <c r="AF6" s="143"/>
       <c r="AG6" s="143"/>
       <c r="AH6" s="143"/>
-      <c r="AO6" s="160"/>
-      <c r="AP6" s="160"/>
-      <c r="AQ6" s="160"/>
-      <c r="AR6" s="117" t="s">
-        <v>765</v>
-      </c>
-      <c r="AS6" s="128" t="s">
-        <v>766</v>
-      </c>
-      <c r="AT6" s="117" t="s">
-        <v>767</v>
-      </c>
-      <c r="AU6" s="117"/>
+      <c r="AO6" s="159"/>
+      <c r="AP6" s="159"/>
+      <c r="AQ6" s="159"/>
+      <c r="AR6" s="113" t="s">
+        <v>761</v>
+      </c>
+      <c r="AS6" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="AT6" s="113" t="s">
+        <v>763</v>
+      </c>
+      <c r="AU6" s="113"/>
     </row>
     <row r="7" spans="1:47" ht="87" thickTop="1" thickBot="1">
       <c r="A7" s="9">
@@ -6987,7 +7102,7 @@
         <v>179</v>
       </c>
       <c r="E7" s="12">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F7" s="27">
         <v>1</v>
@@ -7010,53 +7125,53 @@
       <c r="L7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="79">
-        <v>71</v>
-      </c>
-      <c r="N7" s="123">
+      <c r="M7" s="165">
+        <v>77</v>
+      </c>
+      <c r="N7" s="119">
         <v>2</v>
       </c>
-      <c r="O7" s="123" t="s">
+      <c r="O7" s="119" t="s">
+        <v>449</v>
+      </c>
+      <c r="P7" s="119" t="s">
         <v>450</v>
       </c>
-      <c r="P7" s="123" t="s">
-        <v>451</v>
-      </c>
       <c r="Q7" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R7" s="24"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="U7" s="136" t="s">
-        <v>1052</v>
-      </c>
-      <c r="V7" s="136" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AC7" s="97" t="s">
-        <v>694</v>
+        <v>586</v>
+      </c>
+      <c r="U7" s="132" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V7" s="132" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AC7" s="93" t="s">
+        <v>692</v>
       </c>
       <c r="AD7" s="16"/>
       <c r="AE7" s="143"/>
       <c r="AF7" s="143"/>
       <c r="AG7" s="143"/>
       <c r="AH7" s="143"/>
-      <c r="AO7" s="160"/>
-      <c r="AP7" s="160"/>
-      <c r="AQ7" s="160"/>
-      <c r="AR7" s="117" t="s">
-        <v>768</v>
-      </c>
-      <c r="AS7" s="128" t="s">
-        <v>769</v>
-      </c>
-      <c r="AT7" s="117" t="s">
-        <v>770</v>
-      </c>
-      <c r="AU7" s="117"/>
+      <c r="AO7" s="159"/>
+      <c r="AP7" s="159"/>
+      <c r="AQ7" s="159"/>
+      <c r="AR7" s="113" t="s">
+        <v>764</v>
+      </c>
+      <c r="AS7" s="124" t="s">
+        <v>765</v>
+      </c>
+      <c r="AT7" s="113" t="s">
+        <v>766</v>
+      </c>
+      <c r="AU7" s="113"/>
     </row>
     <row r="8" spans="1:47" ht="82.5" thickTop="1" thickBot="1">
       <c r="A8" s="8">
@@ -7069,10 +7184,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="E8" s="13">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F8" s="14">
         <v>4</v>
@@ -7095,53 +7210,53 @@
       <c r="L8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="79">
-        <v>72</v>
+      <c r="M8" s="165">
+        <v>78</v>
       </c>
       <c r="N8" s="71">
         <v>2</v>
       </c>
       <c r="O8" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="P8" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="P8" s="71" t="s">
-        <v>453</v>
-      </c>
       <c r="Q8" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="25"/>
       <c r="T8" s="26" t="s">
-        <v>588</v>
-      </c>
-      <c r="U8" s="136" t="s">
-        <v>1054</v>
-      </c>
-      <c r="V8" s="136" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AC8" s="97" t="s">
-        <v>695</v>
+        <v>587</v>
+      </c>
+      <c r="U8" s="132" t="s">
+        <v>1049</v>
+      </c>
+      <c r="V8" s="132" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AC8" s="93" t="s">
+        <v>693</v>
       </c>
       <c r="AD8" s="16"/>
       <c r="AE8" s="143"/>
       <c r="AF8" s="143"/>
       <c r="AG8" s="143"/>
       <c r="AH8" s="143"/>
-      <c r="AO8" s="160"/>
-      <c r="AP8" s="160"/>
-      <c r="AQ8" s="160"/>
-      <c r="AR8" s="117" t="s">
-        <v>771</v>
-      </c>
-      <c r="AS8" s="128" t="s">
-        <v>772</v>
-      </c>
-      <c r="AT8" s="117" t="s">
-        <v>773</v>
-      </c>
-      <c r="AU8" s="117"/>
+      <c r="AO8" s="159"/>
+      <c r="AP8" s="159"/>
+      <c r="AQ8" s="159"/>
+      <c r="AR8" s="113" t="s">
+        <v>767</v>
+      </c>
+      <c r="AS8" s="124" t="s">
+        <v>768</v>
+      </c>
+      <c r="AT8" s="113" t="s">
+        <v>769</v>
+      </c>
+      <c r="AU8" s="113"/>
     </row>
     <row r="9" spans="1:47" ht="72" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="9">
@@ -7154,10 +7269,10 @@
         <v>51</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="E9" s="12">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F9" s="51">
         <v>1</v>
@@ -7180,45 +7295,43 @@
       <c r="L9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="79">
-        <v>73</v>
-      </c>
-      <c r="N9" s="123">
+      <c r="M9" s="165">
+        <v>79</v>
+      </c>
+      <c r="N9" s="119">
         <v>1</v>
       </c>
-      <c r="O9" s="123" t="s">
-        <v>454</v>
-      </c>
-      <c r="P9" s="123" t="s">
-        <v>480</v>
+      <c r="O9" s="119" t="s">
+        <v>453</v>
+      </c>
+      <c r="P9" s="119" t="s">
+        <v>479</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R9" s="24"/>
       <c r="S9" s="25"/>
       <c r="T9" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="U9" s="136" t="s">
-        <v>1056</v>
-      </c>
-      <c r="V9" s="136" t="s">
-        <v>1057</v>
-      </c>
-      <c r="X9" s="129" t="s">
-        <v>753</v>
-      </c>
-      <c r="AR9" s="117" t="s">
-        <v>774</v>
-      </c>
-      <c r="AS9" s="128" t="s">
-        <v>775</v>
-      </c>
-      <c r="AT9" s="117" t="s">
-        <v>776</v>
-      </c>
-      <c r="AU9" s="117"/>
+        <v>588</v>
+      </c>
+      <c r="U9" s="132" t="s">
+        <v>1051</v>
+      </c>
+      <c r="V9" s="132" t="s">
+        <v>1052</v>
+      </c>
+      <c r="X9" s="125"/>
+      <c r="AR9" s="113" t="s">
+        <v>770</v>
+      </c>
+      <c r="AS9" s="124" t="s">
+        <v>771</v>
+      </c>
+      <c r="AT9" s="113" t="s">
+        <v>772</v>
+      </c>
+      <c r="AU9" s="113"/>
     </row>
     <row r="10" spans="1:47" ht="85.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="9"/>
@@ -7232,7 +7345,7 @@
         <v>52</v>
       </c>
       <c r="E10" s="13">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F10" s="27">
         <v>3</v>
@@ -7255,34 +7368,34 @@
       <c r="L10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="79">
-        <v>74</v>
-      </c>
-      <c r="N10" s="123">
+      <c r="M10" s="165">
+        <v>80</v>
+      </c>
+      <c r="N10" s="119">
         <v>1</v>
       </c>
-      <c r="O10" s="123" t="s">
+      <c r="O10" s="119" t="s">
+        <v>454</v>
+      </c>
+      <c r="P10" s="119" t="s">
         <v>455</v>
       </c>
-      <c r="P10" s="123" t="s">
-        <v>456</v>
-      </c>
       <c r="Q10" s="23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R10" s="24"/>
       <c r="S10" s="25"/>
       <c r="T10" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="U10" s="136" t="s">
-        <v>1063</v>
-      </c>
-      <c r="V10" s="136" t="s">
-        <v>1064</v>
+        <v>589</v>
+      </c>
+      <c r="U10" s="132" t="s">
+        <v>1058</v>
+      </c>
+      <c r="V10" s="132" t="s">
+        <v>1059</v>
       </c>
       <c r="W10" s="145" t="s">
-        <v>735</v>
+        <v>1096</v>
       </c>
       <c r="X10" s="146"/>
       <c r="Y10" s="146"/>
@@ -7299,16 +7412,16 @@
       <c r="AJ10" s="146"/>
       <c r="AK10" s="146"/>
       <c r="AL10" s="146"/>
-      <c r="AR10" s="117" t="s">
-        <v>777</v>
-      </c>
-      <c r="AS10" s="128" t="s">
-        <v>778</v>
-      </c>
-      <c r="AT10" s="117" t="s">
-        <v>779</v>
-      </c>
-      <c r="AU10" s="117"/>
+      <c r="AR10" s="113" t="s">
+        <v>773</v>
+      </c>
+      <c r="AS10" s="124" t="s">
+        <v>774</v>
+      </c>
+      <c r="AT10" s="113" t="s">
+        <v>775</v>
+      </c>
+      <c r="AU10" s="113"/>
     </row>
     <row r="11" spans="1:47" ht="76.5" thickTop="1" thickBot="1">
       <c r="A11" s="8">
@@ -7324,7 +7437,7 @@
         <v>178</v>
       </c>
       <c r="E11" s="12">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F11" s="14">
         <v>3</v>
@@ -7344,75 +7457,75 @@
       <c r="K11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="M11" s="79">
-        <v>75</v>
+      <c r="L11" s="162" t="s">
+        <v>422</v>
+      </c>
+      <c r="M11" s="165">
+        <v>81</v>
       </c>
       <c r="N11" s="71">
         <v>3</v>
       </c>
       <c r="O11" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="P11" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="P11" s="71" t="s">
-        <v>458</v>
-      </c>
       <c r="Q11" s="23" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R11" s="24"/>
       <c r="S11" s="25"/>
       <c r="T11" s="26"/>
-      <c r="U11" s="136" t="s">
-        <v>1065</v>
-      </c>
-      <c r="V11" s="136" t="s">
-        <v>1064</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>745</v>
-      </c>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="101" t="s">
-        <v>935</v>
-      </c>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="99" t="s">
-        <v>741</v>
-      </c>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="101" t="s">
+      <c r="U11" s="132" t="s">
+        <v>1060</v>
+      </c>
+      <c r="V11" s="132" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W11" s="95" t="s">
+        <v>742</v>
+      </c>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="97" t="s">
+        <v>931</v>
+      </c>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="95" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="97" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="97" t="s">
+        <v>734</v>
+      </c>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="97" t="s">
         <v>736</v>
       </c>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="101" t="s">
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="97" t="s">
+        <v>735</v>
+      </c>
+      <c r="AJ11" s="118"/>
+      <c r="AK11" s="95" t="s">
         <v>737</v>
       </c>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="101" t="s">
-        <v>739</v>
-      </c>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="101" t="s">
-        <v>738</v>
-      </c>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="99" t="s">
-        <v>740</v>
-      </c>
-      <c r="AL11" s="122"/>
-      <c r="AR11" s="117" t="s">
-        <v>780</v>
-      </c>
-      <c r="AS11" s="128" t="s">
-        <v>781</v>
-      </c>
-      <c r="AT11" s="117" t="s">
-        <v>782</v>
-      </c>
-      <c r="AU11" s="117"/>
+      <c r="AL11" s="118"/>
+      <c r="AR11" s="113" t="s">
+        <v>776</v>
+      </c>
+      <c r="AS11" s="124" t="s">
+        <v>777</v>
+      </c>
+      <c r="AT11" s="113" t="s">
+        <v>778</v>
+      </c>
+      <c r="AU11" s="113"/>
     </row>
     <row r="12" spans="1:47" ht="108.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="9">
@@ -7428,7 +7541,7 @@
         <v>177</v>
       </c>
       <c r="E12" s="13">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>92</v>
@@ -7451,86 +7564,86 @@
       <c r="L12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="79">
-        <v>76</v>
+      <c r="M12" s="165">
+        <v>82</v>
       </c>
       <c r="N12" s="71">
         <v>5</v>
       </c>
       <c r="O12" s="71" t="s">
+        <v>459</v>
+      </c>
+      <c r="P12" s="71" t="s">
         <v>460</v>
       </c>
-      <c r="P12" s="71" t="s">
-        <v>461</v>
-      </c>
       <c r="Q12" s="23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="136" t="s">
-        <v>1041</v>
-      </c>
-      <c r="V12" s="136" t="s">
-        <v>1042</v>
-      </c>
-      <c r="W12" s="102" t="s">
-        <v>635</v>
-      </c>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="122" t="s">
-        <v>748</v>
-      </c>
-      <c r="Z12" s="122" t="s">
-        <v>752</v>
-      </c>
-      <c r="AA12" s="102" t="s">
+      <c r="U12" s="132" t="s">
+        <v>1036</v>
+      </c>
+      <c r="V12" s="132" t="s">
+        <v>1037</v>
+      </c>
+      <c r="W12" s="98" t="s">
+        <v>633</v>
+      </c>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="118" t="s">
+        <v>745</v>
+      </c>
+      <c r="Z12" s="118" t="s">
+        <v>749</v>
+      </c>
+      <c r="AA12" s="98" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB12" s="98" t="s">
         <v>617</v>
       </c>
-      <c r="AB12" s="102" t="s">
-        <v>618</v>
-      </c>
-      <c r="AC12" s="102" t="s">
+      <c r="AC12" s="98" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD12" s="98" t="s">
         <v>605</v>
       </c>
-      <c r="AD12" s="102" t="s">
+      <c r="AE12" s="112" t="s">
+        <v>929</v>
+      </c>
+      <c r="AF12" s="118" t="s">
+        <v>930</v>
+      </c>
+      <c r="AG12" s="99" t="s">
+        <v>668</v>
+      </c>
+      <c r="AH12" s="99" t="s">
+        <v>667</v>
+      </c>
+      <c r="AI12" s="100" t="s">
         <v>606</v>
       </c>
-      <c r="AE12" s="116" t="s">
-        <v>933</v>
-      </c>
-      <c r="AF12" s="122" t="s">
-        <v>934</v>
-      </c>
-      <c r="AG12" s="103" t="s">
-        <v>670</v>
-      </c>
-      <c r="AH12" s="103" t="s">
-        <v>669</v>
-      </c>
-      <c r="AI12" s="104" t="s">
+      <c r="AJ12" s="100" t="s">
         <v>607</v>
       </c>
-      <c r="AJ12" s="104" t="s">
-        <v>608</v>
-      </c>
-      <c r="AK12" s="102" t="s">
+      <c r="AK12" s="98" t="s">
+        <v>610</v>
+      </c>
+      <c r="AL12" s="98" t="s">
         <v>611</v>
       </c>
-      <c r="AL12" s="102" t="s">
-        <v>612</v>
-      </c>
-      <c r="AR12" s="117" t="s">
-        <v>765</v>
-      </c>
-      <c r="AS12" s="128" t="s">
-        <v>783</v>
-      </c>
-      <c r="AT12" s="117" t="s">
-        <v>784</v>
-      </c>
-      <c r="AU12" s="117"/>
+      <c r="AR12" s="113" t="s">
+        <v>761</v>
+      </c>
+      <c r="AS12" s="124" t="s">
+        <v>779</v>
+      </c>
+      <c r="AT12" s="113" t="s">
+        <v>780</v>
+      </c>
+      <c r="AU12" s="113"/>
     </row>
     <row r="13" spans="1:47" ht="76.5" thickTop="1" thickBot="1">
       <c r="A13" s="8">
@@ -7546,7 +7659,7 @@
         <v>174</v>
       </c>
       <c r="E13" s="12">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>95</v>
@@ -7569,84 +7682,84 @@
       <c r="L13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="79">
-        <v>77</v>
+      <c r="M13" s="165">
+        <v>83</v>
       </c>
       <c r="N13" s="71">
         <v>2</v>
       </c>
       <c r="O13" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="P13" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="P13" s="71" t="s">
-        <v>463</v>
-      </c>
       <c r="Q13" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="R13" s="24"/>
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
-      <c r="U13" s="136" t="s">
-        <v>1043</v>
-      </c>
-      <c r="V13" s="136" t="s">
-        <v>1058</v>
-      </c>
-      <c r="W13" s="102" t="s">
+      <c r="U13" s="132" t="s">
+        <v>1038</v>
+      </c>
+      <c r="V13" s="132" t="s">
+        <v>1053</v>
+      </c>
+      <c r="W13" s="98" t="s">
+        <v>634</v>
+      </c>
+      <c r="X13" s="98" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y13" s="114" t="s">
+        <v>927</v>
+      </c>
+      <c r="Z13" s="118" t="s">
+        <v>928</v>
+      </c>
+      <c r="AA13" s="98" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB13" s="98" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC13" s="101" t="s">
         <v>636</v>
       </c>
-      <c r="X13" s="102" t="s">
+      <c r="AD13" s="101" t="s">
         <v>637</v>
       </c>
-      <c r="Y13" s="118" t="s">
-        <v>931</v>
-      </c>
-      <c r="Z13" s="122" t="s">
-        <v>932</v>
-      </c>
-      <c r="AA13" s="102" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB13" s="102" t="s">
-        <v>620</v>
-      </c>
-      <c r="AC13" s="105" t="s">
-        <v>638</v>
-      </c>
-      <c r="AD13" s="105" t="s">
-        <v>639</v>
-      </c>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="103" t="s">
-        <v>671</v>
-      </c>
-      <c r="AH13" s="103" t="s">
-        <v>678</v>
-      </c>
-      <c r="AI13" s="106" t="s">
-        <v>726</v>
-      </c>
-      <c r="AJ13" s="106" t="s">
-        <v>727</v>
-      </c>
-      <c r="AK13" s="102" t="s">
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="99" t="s">
+        <v>669</v>
+      </c>
+      <c r="AH13" s="99" t="s">
+        <v>676</v>
+      </c>
+      <c r="AI13" s="102" t="s">
+        <v>724</v>
+      </c>
+      <c r="AJ13" s="102" t="s">
+        <v>725</v>
+      </c>
+      <c r="AK13" s="98" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL13" s="98" t="s">
         <v>613</v>
       </c>
-      <c r="AL13" s="102" t="s">
-        <v>614</v>
-      </c>
-      <c r="AR13" s="117" t="s">
-        <v>785</v>
-      </c>
-      <c r="AS13" s="128" t="s">
-        <v>786</v>
-      </c>
-      <c r="AT13" s="117" t="s">
-        <v>787</v>
-      </c>
-      <c r="AU13" s="117"/>
+      <c r="AR13" s="113" t="s">
+        <v>781</v>
+      </c>
+      <c r="AS13" s="124" t="s">
+        <v>782</v>
+      </c>
+      <c r="AT13" s="113" t="s">
+        <v>783</v>
+      </c>
+      <c r="AU13" s="113"/>
     </row>
     <row r="14" spans="1:47" ht="82.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="9">
@@ -7659,10 +7772,10 @@
         <v>336</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E14" s="13">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>97</v>
@@ -7685,100 +7798,100 @@
       <c r="L14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="79">
-        <v>78</v>
-      </c>
-      <c r="N14" s="123">
+      <c r="M14" s="165">
+        <v>84</v>
+      </c>
+      <c r="N14" s="119">
         <v>1</v>
       </c>
-      <c r="O14" s="123" t="s">
-        <v>466</v>
-      </c>
-      <c r="P14" s="123" t="s">
-        <v>464</v>
+      <c r="O14" s="119" t="s">
+        <v>465</v>
+      </c>
+      <c r="P14" s="119" t="s">
+        <v>463</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R14" s="24"/>
       <c r="S14" s="25"/>
       <c r="T14" s="26"/>
-      <c r="U14" s="136" t="s">
-        <v>1044</v>
-      </c>
-      <c r="V14" s="136" t="s">
-        <v>1038</v>
-      </c>
-      <c r="W14" s="106" t="s">
-        <v>644</v>
-      </c>
-      <c r="X14" s="106" t="s">
-        <v>645</v>
-      </c>
-      <c r="Y14" s="118" t="s">
-        <v>936</v>
-      </c>
-      <c r="Z14" s="122" t="s">
-        <v>937</v>
-      </c>
-      <c r="AA14" s="102" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB14" s="102" t="s">
-        <v>630</v>
-      </c>
-      <c r="AC14" s="105" t="s">
-        <v>729</v>
-      </c>
-      <c r="AD14" s="105" t="s">
-        <v>730</v>
-      </c>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="103" t="s">
-        <v>672</v>
-      </c>
-      <c r="AH14" s="103" t="s">
-        <v>673</v>
-      </c>
-      <c r="AI14" s="103" t="s">
-        <v>685</v>
-      </c>
-      <c r="AJ14" s="103" t="s">
-        <v>708</v>
-      </c>
-      <c r="AK14" s="102" t="s">
+      <c r="U14" s="132" t="s">
+        <v>1039</v>
+      </c>
+      <c r="V14" s="132" t="s">
+        <v>1033</v>
+      </c>
+      <c r="W14" s="102" t="s">
+        <v>642</v>
+      </c>
+      <c r="X14" s="102" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y14" s="114" t="s">
+        <v>932</v>
+      </c>
+      <c r="Z14" s="118" t="s">
+        <v>933</v>
+      </c>
+      <c r="AA14" s="98" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB14" s="98" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AC14" s="101" t="s">
+        <v>727</v>
+      </c>
+      <c r="AD14" s="101" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="99" t="s">
+        <v>670</v>
+      </c>
+      <c r="AH14" s="99" t="s">
+        <v>671</v>
+      </c>
+      <c r="AI14" s="99" t="s">
+        <v>683</v>
+      </c>
+      <c r="AJ14" s="99" t="s">
+        <v>706</v>
+      </c>
+      <c r="AK14" s="98" t="s">
+        <v>614</v>
+      </c>
+      <c r="AL14" s="98" t="s">
         <v>615</v>
       </c>
-      <c r="AL14" s="102" t="s">
-        <v>616</v>
-      </c>
-      <c r="AR14" s="117" t="s">
+      <c r="AR14" s="113" t="s">
+        <v>781</v>
+      </c>
+      <c r="AS14" s="124" t="s">
+        <v>784</v>
+      </c>
+      <c r="AT14" s="113" t="s">
         <v>785</v>
       </c>
-      <c r="AS14" s="128" t="s">
-        <v>788</v>
-      </c>
-      <c r="AT14" s="117" t="s">
-        <v>789</v>
-      </c>
-      <c r="AU14" s="117"/>
+      <c r="AU14" s="113"/>
     </row>
     <row r="15" spans="1:47" ht="87" thickTop="1" thickBot="1">
       <c r="A15" s="8">
         <v>10</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>555</v>
-      </c>
       <c r="E15" s="12">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>99</v>
@@ -7801,84 +7914,84 @@
       <c r="L15" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="M15" s="79">
-        <v>79</v>
-      </c>
-      <c r="N15" s="123">
+      <c r="M15" s="165">
+        <v>85</v>
+      </c>
+      <c r="N15" s="119">
         <v>1</v>
       </c>
-      <c r="O15" s="123" t="s">
-        <v>467</v>
-      </c>
-      <c r="P15" s="123" t="s">
-        <v>465</v>
+      <c r="O15" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="P15" s="119" t="s">
+        <v>464</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="R15" s="24"/>
       <c r="S15" s="25"/>
       <c r="T15" s="26"/>
-      <c r="U15" s="136" t="s">
-        <v>1045</v>
-      </c>
-      <c r="V15" s="136" t="s">
-        <v>1066</v>
-      </c>
-      <c r="W15" s="107" t="s">
-        <v>742</v>
-      </c>
-      <c r="X15" s="122" t="s">
+      <c r="U15" s="132" t="s">
+        <v>1040</v>
+      </c>
+      <c r="V15" s="132" t="s">
+        <v>1061</v>
+      </c>
+      <c r="W15" s="103" t="s">
+        <v>739</v>
+      </c>
+      <c r="X15" s="118" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y15" s="118" t="s">
+        <v>950</v>
+      </c>
+      <c r="Z15" s="118" t="s">
+        <v>951</v>
+      </c>
+      <c r="AA15" s="98" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB15" s="98" t="s">
+        <v>627</v>
+      </c>
+      <c r="AC15" s="118" t="s">
+        <v>746</v>
+      </c>
+      <c r="AD15" s="118" t="s">
         <v>747</v>
       </c>
-      <c r="Y15" s="122" t="s">
-        <v>954</v>
-      </c>
-      <c r="Z15" s="122" t="s">
-        <v>955</v>
-      </c>
-      <c r="AA15" s="102" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB15" s="102" t="s">
-        <v>628</v>
-      </c>
-      <c r="AC15" s="122" t="s">
-        <v>749</v>
-      </c>
-      <c r="AD15" s="122" t="s">
-        <v>750</v>
-      </c>
-      <c r="AE15" s="122"/>
-      <c r="AF15" s="122"/>
-      <c r="AG15" s="103" t="s">
-        <v>674</v>
-      </c>
-      <c r="AH15" s="103" t="s">
-        <v>675</v>
-      </c>
-      <c r="AI15" s="103" t="s">
-        <v>697</v>
-      </c>
-      <c r="AJ15" s="103" t="s">
-        <v>743</v>
-      </c>
-      <c r="AK15" s="108" t="s">
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="99" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH15" s="99" t="s">
+        <v>673</v>
+      </c>
+      <c r="AI15" s="99" t="s">
+        <v>695</v>
+      </c>
+      <c r="AJ15" s="99" t="s">
+        <v>740</v>
+      </c>
+      <c r="AK15" s="104" t="s">
+        <v>620</v>
+      </c>
+      <c r="AL15" s="104" t="s">
         <v>621</v>
       </c>
-      <c r="AL15" s="108" t="s">
-        <v>622</v>
-      </c>
-      <c r="AR15" s="117" t="s">
-        <v>785</v>
-      </c>
-      <c r="AS15" s="128" t="s">
-        <v>790</v>
-      </c>
-      <c r="AT15" s="117" t="s">
-        <v>791</v>
-      </c>
-      <c r="AU15" s="117"/>
+      <c r="AR15" s="113" t="s">
+        <v>781</v>
+      </c>
+      <c r="AS15" s="124" t="s">
+        <v>786</v>
+      </c>
+      <c r="AT15" s="113" t="s">
+        <v>787</v>
+      </c>
+      <c r="AU15" s="113"/>
     </row>
     <row r="16" spans="1:47" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="9">
@@ -7894,7 +8007,7 @@
         <v>159</v>
       </c>
       <c r="E16" s="13">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F16" s="51">
         <v>3</v>
@@ -7917,91 +8030,91 @@
       <c r="L16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="79">
-        <v>80</v>
-      </c>
-      <c r="N16" s="123">
+      <c r="M16" s="165">
+        <v>86</v>
+      </c>
+      <c r="N16" s="119">
         <v>1</v>
       </c>
-      <c r="O16" s="123" t="s">
+      <c r="O16" s="119" t="s">
+        <v>467</v>
+      </c>
+      <c r="P16" s="119" t="s">
         <v>468</v>
       </c>
-      <c r="P16" s="123" t="s">
-        <v>469</v>
-      </c>
       <c r="Q16" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="R16" s="24"/>
       <c r="S16" s="25"/>
       <c r="T16" s="26"/>
-      <c r="U16" s="136" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V16" s="136" t="s">
-        <v>1047</v>
-      </c>
-      <c r="W16" s="122" t="s">
-        <v>649</v>
-      </c>
-      <c r="X16" s="122" t="s">
-        <v>650</v>
-      </c>
-      <c r="Y16" s="122" t="s">
-        <v>978</v>
-      </c>
-      <c r="Z16" s="122" t="s">
-        <v>979</v>
-      </c>
-      <c r="AA16" s="102" t="s">
+      <c r="U16" s="132" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V16" s="132" t="s">
+        <v>1042</v>
+      </c>
+      <c r="W16" s="118" t="s">
+        <v>647</v>
+      </c>
+      <c r="X16" s="118" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y16" s="118" t="s">
+        <v>974</v>
+      </c>
+      <c r="Z16" s="118" t="s">
+        <v>975</v>
+      </c>
+      <c r="AA16" s="98" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB16" s="98" t="s">
         <v>609</v>
       </c>
-      <c r="AB16" s="102" t="s">
-        <v>610</v>
-      </c>
-      <c r="AC16" s="118" t="s">
-        <v>938</v>
-      </c>
-      <c r="AD16" s="122" t="s">
-        <v>939</v>
-      </c>
-      <c r="AE16" s="122"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="103" t="s">
-        <v>679</v>
-      </c>
-      <c r="AH16" s="103" t="s">
-        <v>680</v>
-      </c>
-      <c r="AI16" s="103" t="s">
-        <v>723</v>
-      </c>
-      <c r="AJ16" s="103" t="s">
-        <v>699</v>
-      </c>
-      <c r="AK16" s="102" t="s">
-        <v>624</v>
-      </c>
-      <c r="AL16" s="102" t="s">
+      <c r="AC16" s="114" t="s">
+        <v>934</v>
+      </c>
+      <c r="AD16" s="118" t="s">
+        <v>935</v>
+      </c>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="118"/>
+      <c r="AG16" s="99" t="s">
+        <v>677</v>
+      </c>
+      <c r="AH16" s="99" t="s">
+        <v>678</v>
+      </c>
+      <c r="AI16" s="99" t="s">
+        <v>721</v>
+      </c>
+      <c r="AJ16" s="99" t="s">
+        <v>697</v>
+      </c>
+      <c r="AK16" s="98" t="s">
         <v>623</v>
       </c>
-      <c r="AR16" s="117" t="s">
-        <v>792</v>
-      </c>
-      <c r="AS16" s="128" t="s">
-        <v>793</v>
-      </c>
-      <c r="AT16" s="117" t="s">
-        <v>794</v>
-      </c>
-      <c r="AU16" s="117"/>
+      <c r="AL16" s="98" t="s">
+        <v>622</v>
+      </c>
+      <c r="AR16" s="113" t="s">
+        <v>788</v>
+      </c>
+      <c r="AS16" s="124" t="s">
+        <v>789</v>
+      </c>
+      <c r="AT16" s="113" t="s">
+        <v>790</v>
+      </c>
+      <c r="AU16" s="113"/>
     </row>
     <row r="17" spans="1:47" ht="77.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="8">
         <v>12</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>157</v>
@@ -8010,7 +8123,7 @@
         <v>158</v>
       </c>
       <c r="E17" s="12">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F17" s="14">
         <v>17</v>
@@ -8031,84 +8144,84 @@
         <v>57</v>
       </c>
       <c r="L17" s="45"/>
-      <c r="M17" s="79">
-        <v>81</v>
-      </c>
-      <c r="N17" s="123">
+      <c r="M17" s="165">
+        <v>87</v>
+      </c>
+      <c r="N17" s="119">
         <v>1</v>
       </c>
-      <c r="O17" s="123" t="s">
+      <c r="O17" s="119" t="s">
+        <v>469</v>
+      </c>
+      <c r="P17" s="119" t="s">
         <v>470</v>
       </c>
-      <c r="P17" s="123" t="s">
-        <v>471</v>
-      </c>
       <c r="Q17" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R17" s="24"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
-      <c r="U17" s="136" t="s">
-        <v>1048</v>
-      </c>
-      <c r="V17" s="136" t="s">
-        <v>1049</v>
-      </c>
-      <c r="W17" s="122" t="s">
-        <v>651</v>
-      </c>
-      <c r="X17" s="122" t="s">
-        <v>746</v>
-      </c>
-      <c r="Y17" s="122" t="s">
-        <v>980</v>
-      </c>
-      <c r="Z17" s="122" t="s">
-        <v>981</v>
-      </c>
-      <c r="AA17" s="109" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB17" s="109" t="s">
-        <v>643</v>
-      </c>
-      <c r="AC17" s="120" t="s">
-        <v>950</v>
-      </c>
-      <c r="AD17" s="120" t="s">
-        <v>951</v>
-      </c>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="122" t="s">
-        <v>970</v>
-      </c>
-      <c r="AH17" s="122" t="s">
+      <c r="U17" s="132" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V17" s="132" t="s">
+        <v>1044</v>
+      </c>
+      <c r="W17" s="118" t="s">
+        <v>649</v>
+      </c>
+      <c r="X17" s="118" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y17" s="118" t="s">
         <v>976</v>
       </c>
-      <c r="AI17" s="103" t="s">
-        <v>705</v>
-      </c>
-      <c r="AJ17" s="103" t="s">
-        <v>706</v>
-      </c>
-      <c r="AK17" s="108" t="s">
-        <v>631</v>
-      </c>
-      <c r="AL17" s="108" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR17" s="117" t="s">
-        <v>795</v>
-      </c>
-      <c r="AS17" s="128" t="s">
-        <v>796</v>
-      </c>
-      <c r="AT17" s="117" t="s">
-        <v>797</v>
-      </c>
-      <c r="AU17" s="117"/>
+      <c r="Z17" s="118" t="s">
+        <v>977</v>
+      </c>
+      <c r="AA17" s="105" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB17" s="105" t="s">
+        <v>641</v>
+      </c>
+      <c r="AC17" s="116" t="s">
+        <v>946</v>
+      </c>
+      <c r="AD17" s="116" t="s">
+        <v>947</v>
+      </c>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118" t="s">
+        <v>966</v>
+      </c>
+      <c r="AH17" s="118" t="s">
+        <v>972</v>
+      </c>
+      <c r="AI17" s="99" t="s">
+        <v>703</v>
+      </c>
+      <c r="AJ17" s="99" t="s">
+        <v>704</v>
+      </c>
+      <c r="AK17" s="104" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL17" s="104" t="s">
+        <v>624</v>
+      </c>
+      <c r="AR17" s="113" t="s">
+        <v>791</v>
+      </c>
+      <c r="AS17" s="124" t="s">
+        <v>792</v>
+      </c>
+      <c r="AT17" s="113" t="s">
+        <v>793</v>
+      </c>
+      <c r="AU17" s="113"/>
     </row>
     <row r="18" spans="1:47" ht="75.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="9">
@@ -8124,7 +8237,7 @@
         <v>164</v>
       </c>
       <c r="E18" s="13">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F18" s="51">
         <v>4</v>
@@ -8147,84 +8260,84 @@
       <c r="L18" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="79">
-        <v>82</v>
-      </c>
-      <c r="N18" s="123">
+      <c r="M18" s="165">
+        <v>88</v>
+      </c>
+      <c r="N18" s="119">
         <v>2</v>
       </c>
-      <c r="O18" s="123" t="s">
+      <c r="O18" s="119" t="s">
+        <v>471</v>
+      </c>
+      <c r="P18" s="119" t="s">
         <v>472</v>
       </c>
-      <c r="P18" s="123" t="s">
-        <v>473</v>
-      </c>
       <c r="Q18" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R18" s="24"/>
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
-      <c r="U18" s="136" t="s">
-        <v>1050</v>
-      </c>
-      <c r="V18" s="136" t="s">
-        <v>1051</v>
-      </c>
-      <c r="W18" s="122" t="s">
-        <v>652</v>
-      </c>
-      <c r="X18" s="122" t="s">
-        <v>653</v>
-      </c>
-      <c r="Y18" s="122" t="s">
-        <v>984</v>
-      </c>
-      <c r="Z18" s="122" t="s">
-        <v>985</v>
-      </c>
-      <c r="AA18" s="122" t="s">
-        <v>757</v>
-      </c>
-      <c r="AB18" s="122" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC18" s="122" t="s">
-        <v>960</v>
-      </c>
-      <c r="AD18" s="122" t="s">
-        <v>961</v>
-      </c>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="121" t="s">
-        <v>971</v>
-      </c>
-      <c r="AH18" s="122" t="s">
-        <v>977</v>
-      </c>
-      <c r="AI18" s="110" t="s">
-        <v>700</v>
-      </c>
-      <c r="AJ18" s="110" t="s">
-        <v>704</v>
-      </c>
-      <c r="AK18" s="102" t="s">
-        <v>626</v>
-      </c>
-      <c r="AL18" s="102" t="s">
-        <v>634</v>
-      </c>
-      <c r="AR18" s="117" t="s">
-        <v>798</v>
-      </c>
-      <c r="AS18" s="128" t="s">
-        <v>799</v>
-      </c>
-      <c r="AT18" s="117" t="s">
-        <v>800</v>
-      </c>
-      <c r="AU18" s="117"/>
+      <c r="U18" s="132" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V18" s="132" t="s">
+        <v>1046</v>
+      </c>
+      <c r="W18" s="118" t="s">
+        <v>650</v>
+      </c>
+      <c r="X18" s="118" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y18" s="118" t="s">
+        <v>980</v>
+      </c>
+      <c r="Z18" s="118" t="s">
+        <v>981</v>
+      </c>
+      <c r="AA18" s="118" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB18" s="118" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC18" s="118" t="s">
+        <v>956</v>
+      </c>
+      <c r="AD18" s="118" t="s">
+        <v>957</v>
+      </c>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="117" t="s">
+        <v>967</v>
+      </c>
+      <c r="AH18" s="118" t="s">
+        <v>973</v>
+      </c>
+      <c r="AI18" s="106" t="s">
+        <v>698</v>
+      </c>
+      <c r="AJ18" s="106" t="s">
+        <v>702</v>
+      </c>
+      <c r="AK18" s="98" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL18" s="98" t="s">
+        <v>632</v>
+      </c>
+      <c r="AR18" s="113" t="s">
+        <v>794</v>
+      </c>
+      <c r="AS18" s="124" t="s">
+        <v>795</v>
+      </c>
+      <c r="AT18" s="113" t="s">
+        <v>796</v>
+      </c>
+      <c r="AU18" s="113"/>
     </row>
     <row r="19" spans="1:47" ht="153" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="8">
@@ -8240,7 +8353,7 @@
         <v>161</v>
       </c>
       <c r="E19" s="12">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F19" s="60">
         <v>5</v>
@@ -8255,92 +8368,92 @@
         <v>15</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="K19" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>603</v>
-      </c>
-      <c r="M19" s="79">
-        <v>83</v>
-      </c>
-      <c r="N19" s="123">
+        <v>602</v>
+      </c>
+      <c r="M19" s="165">
+        <v>89</v>
+      </c>
+      <c r="N19" s="119">
         <v>2</v>
       </c>
-      <c r="O19" s="123" t="s">
+      <c r="O19" s="119" t="s">
+        <v>473</v>
+      </c>
+      <c r="P19" s="119" t="s">
         <v>474</v>
       </c>
-      <c r="P19" s="123" t="s">
-        <v>475</v>
-      </c>
       <c r="Q19" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R19" s="24"/>
       <c r="S19" s="25"/>
       <c r="T19" s="26"/>
-      <c r="U19" s="137" t="s">
-        <v>1069</v>
-      </c>
-      <c r="V19" s="138" t="s">
-        <v>1070</v>
-      </c>
-      <c r="W19" s="122" t="s">
-        <v>654</v>
-      </c>
-      <c r="X19" s="122" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y19" s="122" t="s">
-        <v>988</v>
-      </c>
-      <c r="Z19" s="122" t="s">
-        <v>989</v>
-      </c>
-      <c r="AA19" s="122" t="s">
+      <c r="U19" s="133" t="s">
+        <v>1064</v>
+      </c>
+      <c r="V19" s="134" t="s">
+        <v>1065</v>
+      </c>
+      <c r="W19" s="118" t="s">
+        <v>652</v>
+      </c>
+      <c r="X19" s="118" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y19" s="118" t="s">
+        <v>984</v>
+      </c>
+      <c r="Z19" s="118" t="s">
+        <v>985</v>
+      </c>
+      <c r="AA19" s="118" t="s">
+        <v>964</v>
+      </c>
+      <c r="AB19" s="118" t="s">
+        <v>965</v>
+      </c>
+      <c r="AC19" s="118" t="s">
+        <v>960</v>
+      </c>
+      <c r="AD19" s="118" t="s">
+        <v>961</v>
+      </c>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118" t="s">
         <v>968</v>
       </c>
-      <c r="AB19" s="122" t="s">
-        <v>969</v>
-      </c>
-      <c r="AC19" s="122" t="s">
-        <v>964</v>
-      </c>
-      <c r="AD19" s="122" t="s">
-        <v>965</v>
-      </c>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122" t="s">
-        <v>972</v>
-      </c>
-      <c r="AH19" s="122" t="s">
-        <v>975</v>
-      </c>
-      <c r="AI19" s="110" t="s">
-        <v>701</v>
-      </c>
-      <c r="AJ19" s="103" t="s">
-        <v>702</v>
-      </c>
-      <c r="AK19" s="102" t="s">
-        <v>632</v>
-      </c>
-      <c r="AL19" s="102" t="s">
-        <v>633</v>
-      </c>
-      <c r="AR19" s="117" t="s">
-        <v>801</v>
-      </c>
-      <c r="AS19" s="128" t="s">
-        <v>802</v>
-      </c>
-      <c r="AT19" s="117" t="s">
-        <v>803</v>
-      </c>
-      <c r="AU19" s="117"/>
+      <c r="AH19" s="118" t="s">
+        <v>971</v>
+      </c>
+      <c r="AI19" s="106" t="s">
+        <v>699</v>
+      </c>
+      <c r="AJ19" s="99" t="s">
+        <v>700</v>
+      </c>
+      <c r="AK19" s="98" t="s">
+        <v>630</v>
+      </c>
+      <c r="AL19" s="98" t="s">
+        <v>631</v>
+      </c>
+      <c r="AR19" s="113" t="s">
+        <v>797</v>
+      </c>
+      <c r="AS19" s="124" t="s">
+        <v>798</v>
+      </c>
+      <c r="AT19" s="113" t="s">
+        <v>799</v>
+      </c>
+      <c r="AU19" s="113"/>
     </row>
     <row r="20" spans="1:47" ht="95.25" customHeight="1" thickTop="1">
       <c r="A20" s="9">
@@ -8356,7 +8469,7 @@
         <v>164</v>
       </c>
       <c r="E20" s="13">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F20" s="51">
         <v>2</v>
@@ -8374,75 +8487,75 @@
         <v>2</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>496</v>
-      </c>
-      <c r="M20" s="79">
-        <v>84</v>
+        <v>495</v>
+      </c>
+      <c r="M20" s="165">
+        <v>90</v>
       </c>
       <c r="N20" s="71">
         <v>1</v>
       </c>
       <c r="O20" s="71" t="s">
+        <v>475</v>
+      </c>
+      <c r="P20" s="71" t="s">
         <v>476</v>
       </c>
-      <c r="P20" s="71" t="s">
-        <v>477</v>
-      </c>
       <c r="Q20" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="R20" s="24"/>
       <c r="S20" s="25"/>
       <c r="T20" s="26"/>
-      <c r="W20" s="122" t="s">
-        <v>656</v>
-      </c>
-      <c r="X20" s="122" t="s">
-        <v>657</v>
-      </c>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122" t="s">
-        <v>982</v>
-      </c>
-      <c r="AD20" s="122" t="s">
-        <v>983</v>
-      </c>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122" t="s">
-        <v>973</v>
-      </c>
-      <c r="AH20" s="122" t="s">
-        <v>974</v>
-      </c>
-      <c r="AI20" s="111" t="s">
-        <v>703</v>
-      </c>
-      <c r="AJ20" s="103" t="s">
-        <v>707</v>
-      </c>
-      <c r="AK20" s="102" t="s">
-        <v>640</v>
-      </c>
-      <c r="AL20" s="102" t="s">
-        <v>641</v>
-      </c>
-      <c r="AR20" s="117" t="s">
-        <v>804</v>
-      </c>
-      <c r="AS20" s="128" t="s">
-        <v>805</v>
-      </c>
-      <c r="AT20" s="117" t="s">
-        <v>806</v>
-      </c>
-      <c r="AU20" s="117"/>
+      <c r="W20" s="118" t="s">
+        <v>654</v>
+      </c>
+      <c r="X20" s="118" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118" t="s">
+        <v>978</v>
+      </c>
+      <c r="AD20" s="118" t="s">
+        <v>979</v>
+      </c>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118" t="s">
+        <v>969</v>
+      </c>
+      <c r="AH20" s="118" t="s">
+        <v>970</v>
+      </c>
+      <c r="AI20" s="107" t="s">
+        <v>701</v>
+      </c>
+      <c r="AJ20" s="99" t="s">
+        <v>705</v>
+      </c>
+      <c r="AK20" s="98" t="s">
+        <v>638</v>
+      </c>
+      <c r="AL20" s="98" t="s">
+        <v>639</v>
+      </c>
+      <c r="AR20" s="113" t="s">
+        <v>800</v>
+      </c>
+      <c r="AS20" s="124" t="s">
+        <v>801</v>
+      </c>
+      <c r="AT20" s="113" t="s">
+        <v>802</v>
+      </c>
+      <c r="AU20" s="113"/>
     </row>
     <row r="21" spans="1:47" ht="107.25" customHeight="1">
       <c r="A21" s="8">
@@ -8458,7 +8571,7 @@
         <v>233</v>
       </c>
       <c r="E21" s="12">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F21" s="60">
         <v>2</v>
@@ -8481,68 +8594,68 @@
       <c r="L21" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="79">
-        <v>85</v>
+      <c r="M21" s="165">
+        <v>91</v>
       </c>
       <c r="N21" s="71">
         <v>2</v>
       </c>
       <c r="O21" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="P21" s="71" t="s">
         <v>478</v>
       </c>
-      <c r="P21" s="71" t="s">
-        <v>479</v>
-      </c>
       <c r="Q21" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="R21" s="24"/>
       <c r="S21" s="25"/>
       <c r="T21" s="26"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="122" t="s">
-        <v>658</v>
-      </c>
-      <c r="X21" s="122" t="s">
-        <v>659</v>
-      </c>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="122" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD21" s="122" t="s">
-        <v>987</v>
-      </c>
-      <c r="AE21" s="122"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="122"/>
-      <c r="AH21" s="122"/>
-      <c r="AI21" s="110" t="s">
-        <v>712</v>
-      </c>
-      <c r="AJ21" s="103" t="s">
-        <v>709</v>
-      </c>
-      <c r="AK21" s="106" t="s">
-        <v>646</v>
-      </c>
-      <c r="AL21" s="106" t="s">
-        <v>728</v>
-      </c>
-      <c r="AR21" s="117" t="s">
-        <v>807</v>
-      </c>
-      <c r="AS21" s="128" t="s">
-        <v>808</v>
-      </c>
-      <c r="AT21" s="117" t="s">
-        <v>809</v>
-      </c>
-      <c r="AU21" s="117"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="118" t="s">
+        <v>656</v>
+      </c>
+      <c r="X21" s="118" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="118" t="s">
+        <v>982</v>
+      </c>
+      <c r="AD21" s="118" t="s">
+        <v>983</v>
+      </c>
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="118"/>
+      <c r="AG21" s="118"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="106" t="s">
+        <v>710</v>
+      </c>
+      <c r="AJ21" s="99" t="s">
+        <v>707</v>
+      </c>
+      <c r="AK21" s="102" t="s">
+        <v>644</v>
+      </c>
+      <c r="AL21" s="102" t="s">
+        <v>726</v>
+      </c>
+      <c r="AR21" s="113" t="s">
+        <v>803</v>
+      </c>
+      <c r="AS21" s="124" t="s">
+        <v>804</v>
+      </c>
+      <c r="AT21" s="113" t="s">
+        <v>805</v>
+      </c>
+      <c r="AU21" s="113"/>
     </row>
     <row r="22" spans="1:47" ht="117.75" customHeight="1">
       <c r="A22" s="9">
@@ -8558,7 +8671,7 @@
         <v>233</v>
       </c>
       <c r="E22" s="13">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>110</v>
@@ -8581,80 +8694,84 @@
       <c r="L22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="79">
-        <v>86</v>
-      </c>
-      <c r="N22" s="123">
+      <c r="M22" s="165">
+        <v>92</v>
+      </c>
+      <c r="N22" s="119">
         <v>1</v>
       </c>
-      <c r="O22" s="123" t="s">
+      <c r="O22" s="119" t="s">
+        <v>480</v>
+      </c>
+      <c r="P22" s="119" t="s">
         <v>481</v>
       </c>
-      <c r="P22" s="123" t="s">
-        <v>482</v>
-      </c>
       <c r="Q22" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R22" s="24"/>
       <c r="S22" s="25"/>
       <c r="T22" s="26"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="122" t="s">
-        <v>660</v>
-      </c>
-      <c r="X22" s="122" t="s">
-        <v>661</v>
-      </c>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="122"/>
-      <c r="AD22" s="122"/>
-      <c r="AE22" s="122"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="122"/>
-      <c r="AH22" s="122"/>
-      <c r="AI22" s="112" t="s">
-        <v>711</v>
-      </c>
-      <c r="AJ22" s="103" t="s">
-        <v>710</v>
-      </c>
-      <c r="AK22" s="107" t="s">
-        <v>647</v>
-      </c>
-      <c r="AL22" s="107" t="s">
-        <v>648</v>
-      </c>
-      <c r="AR22" s="117" t="s">
-        <v>810</v>
-      </c>
-      <c r="AS22" s="128" t="s">
-        <v>811</v>
-      </c>
-      <c r="AT22" s="117" t="s">
-        <v>812</v>
-      </c>
-      <c r="AU22" s="117"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="118" t="s">
+        <v>658</v>
+      </c>
+      <c r="X22" s="118" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="140" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AD22" s="140" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AE22" s="118"/>
+      <c r="AF22" s="118"/>
+      <c r="AG22" s="118"/>
+      <c r="AH22" s="118"/>
+      <c r="AI22" s="108" t="s">
+        <v>709</v>
+      </c>
+      <c r="AJ22" s="99" t="s">
+        <v>708</v>
+      </c>
+      <c r="AK22" s="103" t="s">
+        <v>645</v>
+      </c>
+      <c r="AL22" s="103" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR22" s="113" t="s">
+        <v>806</v>
+      </c>
+      <c r="AS22" s="124" t="s">
+        <v>807</v>
+      </c>
+      <c r="AT22" s="113" t="s">
+        <v>808</v>
+      </c>
+      <c r="AU22" s="113"/>
     </row>
     <row r="23" spans="1:47" ht="39" customHeight="1">
       <c r="A23" s="8">
         <v>18</v>
       </c>
       <c r="B23" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>550</v>
-      </c>
       <c r="E23" s="12">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F23" s="14">
         <v>9</v>
@@ -8671,66 +8788,66 @@
       <c r="J23" s="14">
         <v>1</v>
       </c>
-      <c r="K23" s="93" t="s">
+      <c r="K23" s="90" t="s">
         <v>67</v>
       </c>
       <c r="L23" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="79">
-        <v>87</v>
-      </c>
-      <c r="N23" s="123">
+      <c r="M23" s="165">
+        <v>93</v>
+      </c>
+      <c r="N23" s="119">
         <v>1</v>
       </c>
-      <c r="O23" s="123" t="s">
+      <c r="O23" s="119" t="s">
+        <v>482</v>
+      </c>
+      <c r="P23" s="119" t="s">
         <v>483</v>
       </c>
-      <c r="P23" s="123" t="s">
-        <v>484</v>
-      </c>
       <c r="Q23" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R23" s="24"/>
       <c r="S23" s="25"/>
       <c r="T23" s="26"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="122" t="s">
-        <v>676</v>
-      </c>
-      <c r="X23" s="122" t="s">
-        <v>677</v>
-      </c>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="122"/>
-      <c r="AD23" s="122"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="122"/>
-      <c r="AK23" s="113" t="s">
-        <v>731</v>
-      </c>
-      <c r="AL23" s="113" t="s">
-        <v>732</v>
-      </c>
-      <c r="AR23" s="117" t="s">
-        <v>813</v>
-      </c>
-      <c r="AS23" s="128" t="s">
-        <v>814</v>
-      </c>
-      <c r="AT23" s="117" t="s">
-        <v>815</v>
-      </c>
-      <c r="AU23" s="117"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="118" t="s">
+        <v>674</v>
+      </c>
+      <c r="X23" s="118" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="118"/>
+      <c r="AF23" s="118"/>
+      <c r="AG23" s="118"/>
+      <c r="AH23" s="118"/>
+      <c r="AI23" s="118"/>
+      <c r="AJ23" s="118"/>
+      <c r="AK23" s="109" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL23" s="109" t="s">
+        <v>730</v>
+      </c>
+      <c r="AR23" s="113" t="s">
+        <v>809</v>
+      </c>
+      <c r="AS23" s="124" t="s">
+        <v>810</v>
+      </c>
+      <c r="AT23" s="113" t="s">
+        <v>811</v>
+      </c>
+      <c r="AU23" s="113"/>
     </row>
     <row r="24" spans="1:47" ht="39" customHeight="1">
       <c r="A24" s="9">
@@ -8746,7 +8863,7 @@
         <v>166</v>
       </c>
       <c r="E24" s="13">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F24" s="27">
         <v>8</v>
@@ -8769,60 +8886,60 @@
       <c r="L24" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="79">
-        <v>88</v>
-      </c>
-      <c r="N24" s="123">
+      <c r="M24" s="165">
+        <v>94</v>
+      </c>
+      <c r="N24" s="119">
         <v>1</v>
       </c>
-      <c r="O24" s="123" t="s">
+      <c r="O24" s="119" t="s">
+        <v>484</v>
+      </c>
+      <c r="P24" s="119" t="s">
         <v>485</v>
       </c>
-      <c r="P24" s="123" t="s">
-        <v>486</v>
-      </c>
       <c r="Q24" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="R24" s="24"/>
       <c r="S24" s="25"/>
       <c r="T24" s="26"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="103" t="s">
-        <v>724</v>
-      </c>
-      <c r="X24" s="113" t="s">
-        <v>725</v>
-      </c>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="122"/>
-      <c r="AD24" s="122"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="122"/>
-      <c r="AI24" s="122"/>
-      <c r="AJ24" s="122"/>
-      <c r="AK24" s="116" t="s">
-        <v>754</v>
-      </c>
-      <c r="AL24" s="122" t="s">
-        <v>755</v>
-      </c>
-      <c r="AR24" s="117" t="s">
-        <v>816</v>
-      </c>
-      <c r="AS24" s="128" t="s">
-        <v>817</v>
-      </c>
-      <c r="AT24" s="117" t="s">
-        <v>818</v>
-      </c>
-      <c r="AU24" s="117"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="99" t="s">
+        <v>722</v>
+      </c>
+      <c r="X24" s="109" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="118"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="118"/>
+      <c r="AJ24" s="118"/>
+      <c r="AK24" s="112" t="s">
+        <v>750</v>
+      </c>
+      <c r="AL24" s="118" t="s">
+        <v>751</v>
+      </c>
+      <c r="AR24" s="113" t="s">
+        <v>812</v>
+      </c>
+      <c r="AS24" s="124" t="s">
+        <v>813</v>
+      </c>
+      <c r="AT24" s="113" t="s">
+        <v>814</v>
+      </c>
+      <c r="AU24" s="113"/>
     </row>
     <row r="25" spans="1:47" ht="55.5" customHeight="1">
       <c r="A25" s="8">
@@ -8838,7 +8955,7 @@
         <v>170</v>
       </c>
       <c r="E25" s="12">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F25" s="14">
         <v>2</v>
@@ -8859,62 +8976,62 @@
         <v>74</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="M25" s="79">
-        <v>89</v>
-      </c>
-      <c r="N25" s="123">
+        <v>433</v>
+      </c>
+      <c r="M25" s="165">
+        <v>95</v>
+      </c>
+      <c r="N25" s="119">
         <v>2</v>
       </c>
-      <c r="O25" s="123" t="s">
-        <v>488</v>
-      </c>
-      <c r="P25" s="123" t="s">
+      <c r="O25" s="119" t="s">
         <v>487</v>
       </c>
+      <c r="P25" s="119" t="s">
+        <v>486</v>
+      </c>
       <c r="Q25" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R25" s="24"/>
       <c r="S25" s="25"/>
       <c r="T25" s="26"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="103" t="s">
-        <v>698</v>
-      </c>
-      <c r="X25" s="103" t="s">
-        <v>751</v>
-      </c>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="122"/>
-      <c r="AJ25" s="122"/>
-      <c r="AK25" s="122" t="s">
-        <v>758</v>
-      </c>
-      <c r="AL25" s="122" t="s">
-        <v>759</v>
-      </c>
-      <c r="AR25" s="117" t="s">
-        <v>819</v>
-      </c>
-      <c r="AS25" s="130" t="s">
-        <v>820</v>
-      </c>
-      <c r="AT25" s="117" t="s">
-        <v>821</v>
-      </c>
-      <c r="AU25" s="117"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="99" t="s">
+        <v>696</v>
+      </c>
+      <c r="X25" s="99" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="118"/>
+      <c r="AH25" s="118"/>
+      <c r="AI25" s="118"/>
+      <c r="AJ25" s="118"/>
+      <c r="AK25" s="118" t="s">
+        <v>754</v>
+      </c>
+      <c r="AL25" s="118" t="s">
+        <v>755</v>
+      </c>
+      <c r="AR25" s="113" t="s">
+        <v>815</v>
+      </c>
+      <c r="AS25" s="126" t="s">
+        <v>816</v>
+      </c>
+      <c r="AT25" s="113" t="s">
+        <v>817</v>
+      </c>
+      <c r="AU25" s="113"/>
     </row>
     <row r="26" spans="1:47" ht="72" customHeight="1">
       <c r="A26" s="9">
@@ -8930,7 +9047,7 @@
         <v>171</v>
       </c>
       <c r="E26" s="13">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F26" s="51" t="s">
         <v>35</v>
@@ -8953,60 +9070,60 @@
       <c r="L26" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="79">
-        <v>90</v>
-      </c>
-      <c r="N26" s="123">
+      <c r="M26" s="165">
+        <v>96</v>
+      </c>
+      <c r="N26" s="119">
         <v>1</v>
       </c>
-      <c r="O26" s="123" t="s">
+      <c r="O26" s="119" t="s">
+        <v>488</v>
+      </c>
+      <c r="P26" s="119" t="s">
         <v>489</v>
       </c>
-      <c r="P26" s="123" t="s">
-        <v>490</v>
-      </c>
       <c r="Q26" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R26" s="24"/>
       <c r="S26" s="25"/>
       <c r="T26" s="26"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="114" t="s">
-        <v>713</v>
-      </c>
-      <c r="X26" s="115" t="s">
-        <v>714</v>
-      </c>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="122"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="122"/>
-      <c r="AH26" s="122"/>
-      <c r="AI26" s="122"/>
-      <c r="AJ26" s="122"/>
-      <c r="AK26" s="131" t="s">
-        <v>761</v>
-      </c>
-      <c r="AL26" s="122" t="s">
-        <v>760</v>
-      </c>
-      <c r="AR26" s="117" t="s">
-        <v>822</v>
-      </c>
-      <c r="AS26" s="128" t="s">
-        <v>823</v>
-      </c>
-      <c r="AT26" s="117" t="s">
-        <v>824</v>
-      </c>
-      <c r="AU26" s="117"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="110" t="s">
+        <v>711</v>
+      </c>
+      <c r="X26" s="111" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="118"/>
+      <c r="AF26" s="118"/>
+      <c r="AG26" s="118"/>
+      <c r="AH26" s="118"/>
+      <c r="AI26" s="118"/>
+      <c r="AJ26" s="118"/>
+      <c r="AK26" s="127" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL26" s="118" t="s">
+        <v>756</v>
+      </c>
+      <c r="AR26" s="113" t="s">
+        <v>818</v>
+      </c>
+      <c r="AS26" s="124" t="s">
+        <v>819</v>
+      </c>
+      <c r="AT26" s="113" t="s">
+        <v>820</v>
+      </c>
+      <c r="AU26" s="113"/>
     </row>
     <row r="27" spans="1:47" ht="75">
       <c r="A27" s="8">
@@ -9022,7 +9139,7 @@
         <v>214</v>
       </c>
       <c r="E27" s="12">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>97</v>
@@ -9045,52 +9162,52 @@
       <c r="L27" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="M27" s="79">
-        <v>91</v>
+      <c r="M27" s="165">
+        <v>97</v>
       </c>
       <c r="N27" s="71">
         <v>5</v>
       </c>
       <c r="O27" s="71" t="s">
+        <v>490</v>
+      </c>
+      <c r="P27" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="P27" s="71" t="s">
-        <v>492</v>
-      </c>
-      <c r="W27" s="115" t="s">
-        <v>681</v>
-      </c>
-      <c r="X27" s="115" t="s">
-        <v>682</v>
-      </c>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="122"/>
-      <c r="AB27" s="122"/>
-      <c r="AC27" s="122"/>
-      <c r="AD27" s="122"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="122"/>
-      <c r="AH27" s="122"/>
-      <c r="AI27" s="122"/>
-      <c r="AJ27" s="122"/>
-      <c r="AK27" s="122" t="s">
-        <v>940</v>
-      </c>
-      <c r="AL27" s="122" t="s">
-        <v>941</v>
-      </c>
-      <c r="AR27" s="117" t="s">
-        <v>825</v>
-      </c>
-      <c r="AS27" s="128" t="s">
-        <v>826</v>
-      </c>
-      <c r="AT27" s="117" t="s">
-        <v>827</v>
-      </c>
-      <c r="AU27" s="117"/>
+      <c r="W27" s="111" t="s">
+        <v>679</v>
+      </c>
+      <c r="X27" s="111" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="118"/>
+      <c r="AE27" s="118"/>
+      <c r="AF27" s="118"/>
+      <c r="AG27" s="118"/>
+      <c r="AH27" s="118"/>
+      <c r="AI27" s="118"/>
+      <c r="AJ27" s="118"/>
+      <c r="AK27" s="118" t="s">
+        <v>936</v>
+      </c>
+      <c r="AL27" s="118" t="s">
+        <v>937</v>
+      </c>
+      <c r="AR27" s="113" t="s">
+        <v>821</v>
+      </c>
+      <c r="AS27" s="124" t="s">
+        <v>822</v>
+      </c>
+      <c r="AT27" s="113" t="s">
+        <v>823</v>
+      </c>
+      <c r="AU27" s="113"/>
     </row>
     <row r="28" spans="1:47" ht="56.25" customHeight="1">
       <c r="A28" s="9">
@@ -9106,7 +9223,7 @@
         <v>192</v>
       </c>
       <c r="E28" s="13">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F28" s="54">
         <v>2</v>
@@ -9129,52 +9246,52 @@
       <c r="L28" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="M28" s="79">
-        <v>92</v>
-      </c>
-      <c r="N28" s="123">
+      <c r="M28" s="165">
+        <v>98</v>
+      </c>
+      <c r="N28" s="119">
         <v>5</v>
       </c>
-      <c r="O28" s="123" t="s">
+      <c r="O28" s="119" t="s">
+        <v>496</v>
+      </c>
+      <c r="P28" s="119" t="s">
         <v>497</v>
       </c>
-      <c r="P28" s="123" t="s">
-        <v>498</v>
-      </c>
-      <c r="W28" s="115" t="s">
-        <v>683</v>
-      </c>
-      <c r="X28" s="115" t="s">
-        <v>684</v>
-      </c>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="122"/>
-      <c r="AC28" s="122"/>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="122"/>
-      <c r="AH28" s="122"/>
-      <c r="AI28" s="122"/>
-      <c r="AJ28" s="122"/>
-      <c r="AK28" s="119" t="s">
-        <v>946</v>
-      </c>
-      <c r="AL28" s="122" t="s">
-        <v>947</v>
-      </c>
-      <c r="AR28" s="117" t="s">
+      <c r="W28" s="111" t="s">
+        <v>681</v>
+      </c>
+      <c r="X28" s="111" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="118"/>
+      <c r="AE28" s="118"/>
+      <c r="AF28" s="118"/>
+      <c r="AG28" s="118"/>
+      <c r="AH28" s="118"/>
+      <c r="AI28" s="118"/>
+      <c r="AJ28" s="118"/>
+      <c r="AK28" s="115" t="s">
+        <v>942</v>
+      </c>
+      <c r="AL28" s="118" t="s">
+        <v>943</v>
+      </c>
+      <c r="AR28" s="113" t="s">
+        <v>821</v>
+      </c>
+      <c r="AS28" s="124" t="s">
+        <v>824</v>
+      </c>
+      <c r="AT28" s="113" t="s">
         <v>825</v>
       </c>
-      <c r="AS28" s="128" t="s">
-        <v>828</v>
-      </c>
-      <c r="AT28" s="117" t="s">
-        <v>829</v>
-      </c>
-      <c r="AU28" s="117"/>
+      <c r="AU28" s="113"/>
     </row>
     <row r="29" spans="1:47" ht="93.75">
       <c r="A29" s="8">
@@ -9184,13 +9301,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E29" s="12">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F29" s="57">
         <v>1</v>
@@ -9213,52 +9330,52 @@
       <c r="L29" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M29" s="79">
-        <v>93</v>
-      </c>
-      <c r="N29" s="123">
+      <c r="M29" s="165">
+        <v>99</v>
+      </c>
+      <c r="N29" s="119">
         <v>3</v>
       </c>
-      <c r="O29" s="123" t="s">
+      <c r="O29" s="119" t="s">
+        <v>498</v>
+      </c>
+      <c r="P29" s="119" t="s">
         <v>499</v>
       </c>
-      <c r="P29" s="123" t="s">
-        <v>500</v>
-      </c>
-      <c r="W29" s="115" t="s">
-        <v>686</v>
-      </c>
-      <c r="X29" s="115" t="s">
-        <v>687</v>
-      </c>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="122"/>
-      <c r="AC29" s="122"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="122"/>
-      <c r="AI29" s="122"/>
-      <c r="AJ29" s="122"/>
-      <c r="AK29" s="122" t="s">
-        <v>952</v>
-      </c>
-      <c r="AL29" s="122" t="s">
-        <v>953</v>
-      </c>
-      <c r="AR29" s="117" t="s">
-        <v>830</v>
-      </c>
-      <c r="AS29" s="128" t="s">
-        <v>831</v>
-      </c>
-      <c r="AT29" s="117" t="s">
-        <v>832</v>
-      </c>
-      <c r="AU29" s="117"/>
+      <c r="W29" s="111" t="s">
+        <v>684</v>
+      </c>
+      <c r="X29" s="111" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="118"/>
+      <c r="AF29" s="118"/>
+      <c r="AG29" s="118"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="118"/>
+      <c r="AJ29" s="118"/>
+      <c r="AK29" s="118" t="s">
+        <v>948</v>
+      </c>
+      <c r="AL29" s="118" t="s">
+        <v>949</v>
+      </c>
+      <c r="AR29" s="113" t="s">
+        <v>826</v>
+      </c>
+      <c r="AS29" s="124" t="s">
+        <v>827</v>
+      </c>
+      <c r="AT29" s="113" t="s">
+        <v>828</v>
+      </c>
+      <c r="AU29" s="113"/>
     </row>
     <row r="30" spans="1:47" ht="75">
       <c r="A30" s="9">
@@ -9274,7 +9391,7 @@
         <v>195</v>
       </c>
       <c r="E30" s="13">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F30" s="59">
         <v>2</v>
@@ -9297,52 +9414,52 @@
       <c r="L30" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="M30" s="79">
-        <v>94</v>
-      </c>
-      <c r="N30" s="123">
+      <c r="M30" s="165">
+        <v>100</v>
+      </c>
+      <c r="N30" s="119">
         <v>1</v>
       </c>
-      <c r="O30" s="123" t="s">
+      <c r="O30" s="119" t="s">
+        <v>500</v>
+      </c>
+      <c r="P30" s="119" t="s">
         <v>501</v>
       </c>
-      <c r="P30" s="123" t="s">
-        <v>502</v>
-      </c>
-      <c r="W30" s="114" t="s">
-        <v>715</v>
-      </c>
-      <c r="X30" s="115" t="s">
-        <v>718</v>
-      </c>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="122"/>
-      <c r="AC30" s="122"/>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="122"/>
-      <c r="AI30" s="122"/>
-      <c r="AJ30" s="122"/>
-      <c r="AK30" s="122" t="s">
-        <v>956</v>
-      </c>
-      <c r="AL30" s="122" t="s">
-        <v>957</v>
-      </c>
-      <c r="AR30" s="117" t="s">
-        <v>833</v>
-      </c>
-      <c r="AS30" s="128" t="s">
-        <v>834</v>
-      </c>
-      <c r="AT30" s="117" t="s">
-        <v>835</v>
-      </c>
-      <c r="AU30" s="117"/>
+      <c r="W30" s="110" t="s">
+        <v>713</v>
+      </c>
+      <c r="X30" s="111" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="118"/>
+      <c r="AE30" s="118"/>
+      <c r="AF30" s="118"/>
+      <c r="AG30" s="118"/>
+      <c r="AH30" s="118"/>
+      <c r="AI30" s="118"/>
+      <c r="AJ30" s="118"/>
+      <c r="AK30" s="118" t="s">
+        <v>952</v>
+      </c>
+      <c r="AL30" s="118" t="s">
+        <v>953</v>
+      </c>
+      <c r="AR30" s="113" t="s">
+        <v>829</v>
+      </c>
+      <c r="AS30" s="124" t="s">
+        <v>830</v>
+      </c>
+      <c r="AT30" s="113" t="s">
+        <v>831</v>
+      </c>
+      <c r="AU30" s="113"/>
     </row>
     <row r="31" spans="1:47" ht="93.75">
       <c r="A31" s="8">
@@ -9358,7 +9475,7 @@
         <v>196</v>
       </c>
       <c r="E31" s="12">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F31" s="57">
         <v>3</v>
@@ -9381,52 +9498,52 @@
       <c r="L31" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="M31" s="94">
-        <v>95</v>
-      </c>
-      <c r="N31" s="95">
+      <c r="M31" s="165">
+        <v>101</v>
+      </c>
+      <c r="N31" s="91">
         <v>3</v>
       </c>
-      <c r="O31" s="96" t="s">
+      <c r="O31" s="92" t="s">
+        <v>502</v>
+      </c>
+      <c r="P31" s="75" t="s">
         <v>503</v>
       </c>
-      <c r="P31" s="75" t="s">
-        <v>504</v>
-      </c>
-      <c r="W31" s="115" t="s">
-        <v>716</v>
-      </c>
-      <c r="X31" s="115" t="s">
-        <v>717</v>
-      </c>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="122"/>
-      <c r="AI31" s="122"/>
-      <c r="AJ31" s="122"/>
-      <c r="AK31" s="122" t="s">
-        <v>966</v>
-      </c>
-      <c r="AL31" s="122" t="s">
-        <v>967</v>
-      </c>
-      <c r="AR31" s="117" t="s">
-        <v>836</v>
-      </c>
-      <c r="AS31" s="128" t="s">
-        <v>837</v>
-      </c>
-      <c r="AT31" s="117" t="s">
-        <v>838</v>
-      </c>
-      <c r="AU31" s="117"/>
+      <c r="W31" s="111" t="s">
+        <v>714</v>
+      </c>
+      <c r="X31" s="111" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="118"/>
+      <c r="AD31" s="118"/>
+      <c r="AE31" s="118"/>
+      <c r="AF31" s="118"/>
+      <c r="AG31" s="118"/>
+      <c r="AH31" s="118"/>
+      <c r="AI31" s="118"/>
+      <c r="AJ31" s="118"/>
+      <c r="AK31" s="118" t="s">
+        <v>962</v>
+      </c>
+      <c r="AL31" s="118" t="s">
+        <v>963</v>
+      </c>
+      <c r="AR31" s="113" t="s">
+        <v>832</v>
+      </c>
+      <c r="AS31" s="124" t="s">
+        <v>833</v>
+      </c>
+      <c r="AT31" s="113" t="s">
+        <v>834</v>
+      </c>
+      <c r="AU31" s="113"/>
     </row>
     <row r="32" spans="1:47" ht="93.75">
       <c r="A32" s="9">
@@ -9442,7 +9559,7 @@
         <v>199</v>
       </c>
       <c r="E32" s="13">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F32" s="59">
         <v>1</v>
@@ -9460,57 +9577,57 @@
         <v>2</v>
       </c>
       <c r="K32" s="72" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L32" s="75" t="s">
-        <v>459</v>
-      </c>
-      <c r="M32" s="79">
-        <v>96</v>
+        <v>458</v>
+      </c>
+      <c r="M32" s="165">
+        <v>102</v>
       </c>
       <c r="N32" s="14">
         <v>2</v>
       </c>
       <c r="O32" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="P32" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="P32" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="W32" s="115" t="s">
-        <v>719</v>
-      </c>
-      <c r="X32" s="115" t="s">
-        <v>720</v>
-      </c>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="122"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="122"/>
-      <c r="AI32" s="122"/>
-      <c r="AJ32" s="122"/>
-      <c r="AK32" s="122" t="s">
-        <v>990</v>
-      </c>
-      <c r="AL32" s="122" t="s">
-        <v>991</v>
-      </c>
-      <c r="AR32" s="117" t="s">
-        <v>839</v>
-      </c>
-      <c r="AS32" s="130" t="s">
-        <v>840</v>
-      </c>
-      <c r="AT32" s="117" t="s">
-        <v>841</v>
-      </c>
-      <c r="AU32" s="117"/>
+      <c r="W32" s="111" t="s">
+        <v>717</v>
+      </c>
+      <c r="X32" s="111" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="118"/>
+      <c r="AE32" s="118"/>
+      <c r="AF32" s="118"/>
+      <c r="AG32" s="118"/>
+      <c r="AH32" s="118"/>
+      <c r="AI32" s="118"/>
+      <c r="AJ32" s="118"/>
+      <c r="AK32" s="118" t="s">
+        <v>986</v>
+      </c>
+      <c r="AL32" s="118" t="s">
+        <v>987</v>
+      </c>
+      <c r="AR32" s="113" t="s">
+        <v>835</v>
+      </c>
+      <c r="AS32" s="126" t="s">
+        <v>836</v>
+      </c>
+      <c r="AT32" s="113" t="s">
+        <v>837</v>
+      </c>
+      <c r="AU32" s="113"/>
     </row>
     <row r="33" spans="1:47" ht="90" customHeight="1">
       <c r="A33" s="8">
@@ -9526,7 +9643,7 @@
         <v>312</v>
       </c>
       <c r="E33" s="12">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F33" s="14">
         <v>2</v>
@@ -9544,53 +9661,53 @@
         <v>1</v>
       </c>
       <c r="K33" s="72" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L33" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="M33" s="79">
-        <v>97</v>
+      <c r="M33" s="165">
+        <v>103</v>
       </c>
       <c r="N33" s="14">
         <v>5</v>
       </c>
       <c r="O33" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="P33" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="P33" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="W33" s="115" t="s">
-        <v>721</v>
-      </c>
-      <c r="X33" s="115" t="s">
-        <v>722</v>
-      </c>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="122"/>
-      <c r="AD33" s="122"/>
-      <c r="AE33" s="122"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="122"/>
-      <c r="AH33" s="122"/>
-      <c r="AI33" s="122"/>
-      <c r="AJ33" s="122"/>
-      <c r="AK33" s="122"/>
-      <c r="AL33" s="122"/>
-      <c r="AR33" s="117" t="s">
-        <v>842</v>
-      </c>
-      <c r="AS33" s="128" t="s">
-        <v>843</v>
-      </c>
-      <c r="AT33" s="117" t="s">
-        <v>844</v>
-      </c>
-      <c r="AU33" s="117"/>
+      <c r="W33" s="111" t="s">
+        <v>719</v>
+      </c>
+      <c r="X33" s="111" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="118"/>
+      <c r="AF33" s="118"/>
+      <c r="AG33" s="118"/>
+      <c r="AH33" s="118"/>
+      <c r="AI33" s="118"/>
+      <c r="AJ33" s="118"/>
+      <c r="AK33" s="118"/>
+      <c r="AL33" s="118"/>
+      <c r="AR33" s="113" t="s">
+        <v>838</v>
+      </c>
+      <c r="AS33" s="124" t="s">
+        <v>839</v>
+      </c>
+      <c r="AT33" s="113" t="s">
+        <v>840</v>
+      </c>
+      <c r="AU33" s="113"/>
     </row>
     <row r="34" spans="1:47" ht="129.75" customHeight="1">
       <c r="A34" s="9">
@@ -9606,7 +9723,7 @@
         <v>202</v>
       </c>
       <c r="E34" s="13">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F34" s="51">
         <v>1</v>
@@ -9624,53 +9741,53 @@
         <v>1</v>
       </c>
       <c r="K34" s="72" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L34" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="M34" s="79">
-        <v>98</v>
+      <c r="M34" s="165">
+        <v>104</v>
       </c>
       <c r="N34" s="14">
         <v>1</v>
       </c>
       <c r="O34" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="P34" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="P34" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="W34" s="122" t="s">
-        <v>942</v>
-      </c>
-      <c r="X34" s="122" t="s">
-        <v>945</v>
-      </c>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="122"/>
-      <c r="AC34" s="122"/>
-      <c r="AD34" s="122"/>
-      <c r="AE34" s="122"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="122"/>
-      <c r="AI34" s="122"/>
-      <c r="AJ34" s="122"/>
-      <c r="AK34" s="122"/>
-      <c r="AL34" s="122"/>
-      <c r="AR34" s="117" t="s">
-        <v>845</v>
-      </c>
-      <c r="AS34" s="128" t="s">
-        <v>846</v>
-      </c>
-      <c r="AT34" s="117" t="s">
-        <v>847</v>
-      </c>
-      <c r="AU34" s="117"/>
+      <c r="W34" s="118" t="s">
+        <v>938</v>
+      </c>
+      <c r="X34" s="118" t="s">
+        <v>941</v>
+      </c>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="118"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="118"/>
+      <c r="AD34" s="118"/>
+      <c r="AE34" s="118"/>
+      <c r="AF34" s="118"/>
+      <c r="AG34" s="118"/>
+      <c r="AH34" s="118"/>
+      <c r="AI34" s="118"/>
+      <c r="AJ34" s="118"/>
+      <c r="AK34" s="118"/>
+      <c r="AL34" s="118"/>
+      <c r="AR34" s="113" t="s">
+        <v>841</v>
+      </c>
+      <c r="AS34" s="124" t="s">
+        <v>842</v>
+      </c>
+      <c r="AT34" s="113" t="s">
+        <v>843</v>
+      </c>
+      <c r="AU34" s="113"/>
     </row>
     <row r="35" spans="1:47" ht="37.5">
       <c r="A35" s="8">
@@ -9683,10 +9800,10 @@
         <v>203</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E35" s="12">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F35" s="52" t="s">
         <v>125</v>
@@ -9706,51 +9823,51 @@
       <c r="K35" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L35" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="M35" s="79">
-        <v>99</v>
-      </c>
-      <c r="N35" s="123" t="s">
-        <v>530</v>
+      <c r="L35" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="M35" s="165">
+        <v>105</v>
+      </c>
+      <c r="N35" s="119" t="s">
+        <v>529</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P35" s="32" t="s">
-        <v>604</v>
-      </c>
-      <c r="W35" s="122" t="s">
-        <v>943</v>
-      </c>
-      <c r="X35" s="122" t="s">
-        <v>944</v>
-      </c>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="122"/>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="122"/>
-      <c r="AF35" s="122"/>
-      <c r="AG35" s="122"/>
-      <c r="AH35" s="122"/>
-      <c r="AI35" s="122"/>
-      <c r="AJ35" s="122"/>
-      <c r="AK35" s="122"/>
-      <c r="AL35" s="122"/>
-      <c r="AR35" s="117" t="s">
-        <v>848</v>
-      </c>
-      <c r="AS35" s="130" t="s">
-        <v>849</v>
-      </c>
-      <c r="AT35" s="117" t="s">
-        <v>850</v>
-      </c>
-      <c r="AU35" s="117"/>
+        <v>603</v>
+      </c>
+      <c r="W35" s="118" t="s">
+        <v>939</v>
+      </c>
+      <c r="X35" s="118" t="s">
+        <v>940</v>
+      </c>
+      <c r="Y35" s="118"/>
+      <c r="Z35" s="118"/>
+      <c r="AA35" s="118"/>
+      <c r="AB35" s="118"/>
+      <c r="AC35" s="118"/>
+      <c r="AD35" s="118"/>
+      <c r="AE35" s="118"/>
+      <c r="AF35" s="118"/>
+      <c r="AG35" s="118"/>
+      <c r="AH35" s="118"/>
+      <c r="AI35" s="118"/>
+      <c r="AJ35" s="118"/>
+      <c r="AK35" s="118"/>
+      <c r="AL35" s="118"/>
+      <c r="AR35" s="113" t="s">
+        <v>844</v>
+      </c>
+      <c r="AS35" s="126" t="s">
+        <v>845</v>
+      </c>
+      <c r="AT35" s="113" t="s">
+        <v>846</v>
+      </c>
+      <c r="AU35" s="113"/>
     </row>
     <row r="36" spans="1:47" ht="75">
       <c r="A36" s="9">
@@ -9766,7 +9883,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="13">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F36" s="47" t="s">
         <v>342</v>
@@ -9786,51 +9903,51 @@
       <c r="K36" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="L36" s="44" t="s">
+      <c r="L36" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="M36" s="79">
-        <v>100</v>
+      <c r="M36" s="165">
+        <v>106</v>
       </c>
       <c r="N36" s="32">
         <v>1</v>
       </c>
       <c r="O36" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="P36" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="P36" s="32" t="s">
-        <v>532</v>
-      </c>
-      <c r="W36" s="122" t="s">
-        <v>958</v>
-      </c>
-      <c r="X36" s="122" t="s">
-        <v>959</v>
-      </c>
-      <c r="Y36" s="122"/>
-      <c r="Z36" s="122"/>
-      <c r="AA36" s="122"/>
-      <c r="AB36" s="122"/>
-      <c r="AC36" s="122"/>
-      <c r="AD36" s="122"/>
-      <c r="AE36" s="122"/>
-      <c r="AF36" s="122"/>
-      <c r="AG36" s="122"/>
-      <c r="AH36" s="122"/>
-      <c r="AI36" s="122"/>
-      <c r="AJ36" s="122"/>
-      <c r="AK36" s="122"/>
-      <c r="AL36" s="122"/>
-      <c r="AR36" s="117" t="s">
-        <v>851</v>
-      </c>
-      <c r="AS36" s="128" t="s">
-        <v>852</v>
-      </c>
-      <c r="AT36" s="117" t="s">
-        <v>853</v>
-      </c>
-      <c r="AU36" s="117"/>
+      <c r="W36" s="118" t="s">
+        <v>954</v>
+      </c>
+      <c r="X36" s="118" t="s">
+        <v>955</v>
+      </c>
+      <c r="Y36" s="118"/>
+      <c r="Z36" s="118"/>
+      <c r="AA36" s="118"/>
+      <c r="AB36" s="118"/>
+      <c r="AC36" s="118"/>
+      <c r="AD36" s="118"/>
+      <c r="AE36" s="118"/>
+      <c r="AF36" s="118"/>
+      <c r="AG36" s="118"/>
+      <c r="AH36" s="118"/>
+      <c r="AI36" s="118"/>
+      <c r="AJ36" s="118"/>
+      <c r="AK36" s="118"/>
+      <c r="AL36" s="118"/>
+      <c r="AR36" s="113" t="s">
+        <v>847</v>
+      </c>
+      <c r="AS36" s="124" t="s">
+        <v>848</v>
+      </c>
+      <c r="AT36" s="113" t="s">
+        <v>849</v>
+      </c>
+      <c r="AU36" s="113"/>
     </row>
     <row r="37" spans="1:47" ht="99.75" customHeight="1">
       <c r="A37" s="8">
@@ -9846,7 +9963,7 @@
         <v>208</v>
       </c>
       <c r="E37" s="12">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F37" s="50" t="s">
         <v>340</v>
@@ -9866,51 +9983,51 @@
       <c r="K37" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="M37" s="79">
-        <v>101</v>
+      <c r="M37" s="165">
+        <v>107</v>
       </c>
       <c r="N37" s="32">
         <v>1</v>
       </c>
       <c r="O37" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="P37" s="32" t="s">
         <v>533</v>
       </c>
-      <c r="P37" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="W37" s="121" t="s">
-        <v>962</v>
-      </c>
-      <c r="X37" s="122" t="s">
-        <v>963</v>
-      </c>
-      <c r="Y37" s="122"/>
-      <c r="Z37" s="122"/>
-      <c r="AA37" s="122"/>
-      <c r="AB37" s="122"/>
-      <c r="AC37" s="122"/>
-      <c r="AD37" s="122"/>
-      <c r="AE37" s="122"/>
-      <c r="AF37" s="122"/>
-      <c r="AG37" s="122"/>
-      <c r="AH37" s="122"/>
-      <c r="AI37" s="122"/>
-      <c r="AJ37" s="122"/>
-      <c r="AK37" s="122"/>
-      <c r="AL37" s="122"/>
-      <c r="AR37" s="117" t="s">
-        <v>854</v>
-      </c>
-      <c r="AS37" s="128" t="s">
-        <v>855</v>
-      </c>
-      <c r="AT37" s="117" t="s">
-        <v>856</v>
-      </c>
-      <c r="AU37" s="117"/>
+      <c r="W37" s="117" t="s">
+        <v>958</v>
+      </c>
+      <c r="X37" s="118" t="s">
+        <v>959</v>
+      </c>
+      <c r="Y37" s="118"/>
+      <c r="Z37" s="118"/>
+      <c r="AA37" s="118"/>
+      <c r="AB37" s="118"/>
+      <c r="AC37" s="118"/>
+      <c r="AD37" s="118"/>
+      <c r="AE37" s="118"/>
+      <c r="AF37" s="118"/>
+      <c r="AG37" s="118"/>
+      <c r="AH37" s="118"/>
+      <c r="AI37" s="118"/>
+      <c r="AJ37" s="118"/>
+      <c r="AK37" s="118"/>
+      <c r="AL37" s="118"/>
+      <c r="AR37" s="113" t="s">
+        <v>850</v>
+      </c>
+      <c r="AS37" s="124" t="s">
+        <v>851</v>
+      </c>
+      <c r="AT37" s="113" t="s">
+        <v>852</v>
+      </c>
+      <c r="AU37" s="113"/>
     </row>
     <row r="38" spans="1:47" ht="84.75" customHeight="1">
       <c r="A38" s="9">
@@ -9926,7 +10043,7 @@
         <v>210</v>
       </c>
       <c r="E38" s="13">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F38" s="48">
         <v>16</v>
@@ -9946,31 +10063,31 @@
       <c r="K38" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="M38" s="79">
-        <v>102</v>
+      <c r="M38" s="165">
+        <v>108</v>
       </c>
       <c r="N38" s="32">
         <v>1</v>
       </c>
       <c r="O38" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="P38" s="32" t="s">
         <v>535</v>
       </c>
-      <c r="P38" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="AR38" s="117" t="s">
-        <v>857</v>
-      </c>
-      <c r="AS38" s="128" t="s">
-        <v>858</v>
-      </c>
-      <c r="AT38" s="117" t="s">
-        <v>859</v>
-      </c>
-      <c r="AU38" s="117"/>
+      <c r="AR38" s="113" t="s">
+        <v>853</v>
+      </c>
+      <c r="AS38" s="124" t="s">
+        <v>854</v>
+      </c>
+      <c r="AT38" s="113" t="s">
+        <v>855</v>
+      </c>
+      <c r="AU38" s="113"/>
     </row>
     <row r="39" spans="1:47" ht="147.75" customHeight="1">
       <c r="A39" s="8">
@@ -9986,7 +10103,7 @@
         <v>421</v>
       </c>
       <c r="E39" s="12">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F39" s="48">
         <v>5</v>
@@ -10006,31 +10123,31 @@
       <c r="K39" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="M39" s="79">
-        <v>103</v>
+      <c r="M39" s="165">
+        <v>109</v>
       </c>
       <c r="N39" s="32">
         <v>1</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="P39" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="AR39" s="117" t="s">
-        <v>860</v>
-      </c>
-      <c r="AS39" s="128" t="s">
-        <v>861</v>
-      </c>
-      <c r="AT39" s="117" t="s">
-        <v>862</v>
-      </c>
-      <c r="AU39" s="117"/>
+        <v>555</v>
+      </c>
+      <c r="AR39" s="113" t="s">
+        <v>856</v>
+      </c>
+      <c r="AS39" s="124" t="s">
+        <v>857</v>
+      </c>
+      <c r="AT39" s="113" t="s">
+        <v>858</v>
+      </c>
+      <c r="AU39" s="113"/>
     </row>
     <row r="40" spans="1:47" ht="75">
       <c r="A40" s="9">
@@ -10046,7 +10163,7 @@
         <v>216</v>
       </c>
       <c r="E40" s="13">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F40" s="48">
         <v>3</v>
@@ -10066,31 +10183,31 @@
       <c r="K40" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="L40" s="38" t="s">
+      <c r="L40" s="163" t="s">
         <v>404</v>
       </c>
-      <c r="M40" s="79">
-        <v>104</v>
+      <c r="M40" s="165">
+        <v>110</v>
       </c>
       <c r="N40" s="32">
         <v>1</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="P40" s="123">
+        <v>569</v>
+      </c>
+      <c r="P40" s="119">
         <v>2812</v>
       </c>
-      <c r="AR40" s="117" t="s">
-        <v>836</v>
-      </c>
-      <c r="AS40" s="128" t="s">
-        <v>863</v>
-      </c>
-      <c r="AT40" s="117" t="s">
-        <v>864</v>
-      </c>
-      <c r="AU40" s="117"/>
+      <c r="AR40" s="113" t="s">
+        <v>832</v>
+      </c>
+      <c r="AS40" s="124" t="s">
+        <v>859</v>
+      </c>
+      <c r="AT40" s="113" t="s">
+        <v>860</v>
+      </c>
+      <c r="AU40" s="113"/>
     </row>
     <row r="41" spans="1:47" ht="27" customHeight="1">
       <c r="A41" s="8">
@@ -10106,7 +10223,7 @@
         <v>217</v>
       </c>
       <c r="E41" s="12">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>136</v>
@@ -10126,31 +10243,31 @@
       <c r="K41" s="72" t="s">
         <v>396</v>
       </c>
-      <c r="L41" s="72" t="s">
+      <c r="L41" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="M41" s="8">
-        <v>105</v>
-      </c>
-      <c r="N41" s="8">
+      <c r="M41" s="165">
+        <v>111</v>
+      </c>
+      <c r="N41" s="14">
         <v>1</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="AR41" s="117" t="s">
-        <v>865</v>
-      </c>
-      <c r="AS41" s="128" t="s">
-        <v>866</v>
-      </c>
-      <c r="AT41" s="117" t="s">
-        <v>867</v>
-      </c>
-      <c r="AU41" s="117"/>
+        <v>661</v>
+      </c>
+      <c r="AR41" s="113" t="s">
+        <v>861</v>
+      </c>
+      <c r="AS41" s="124" t="s">
+        <v>862</v>
+      </c>
+      <c r="AT41" s="113" t="s">
+        <v>863</v>
+      </c>
+      <c r="AU41" s="113"/>
     </row>
     <row r="42" spans="1:47" ht="45.75" customHeight="1">
       <c r="A42" s="9">
@@ -10166,7 +10283,7 @@
         <v>217</v>
       </c>
       <c r="E42" s="13">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>35</v>
@@ -10180,37 +10297,37 @@
       <c r="I42" s="13">
         <v>38</v>
       </c>
-      <c r="J42" s="163" t="s">
+      <c r="J42" s="138" t="s">
         <v>398</v>
       </c>
-      <c r="K42" s="164" t="s">
+      <c r="K42" s="139" t="s">
         <v>402</v>
       </c>
-      <c r="L42" s="164" t="s">
+      <c r="L42" s="139" t="s">
         <v>403</v>
       </c>
-      <c r="M42" s="72">
-        <v>106</v>
-      </c>
-      <c r="N42" s="72">
+      <c r="M42" s="165">
+        <v>112</v>
+      </c>
+      <c r="N42" s="74">
         <v>4</v>
       </c>
       <c r="O42" s="72" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P42" s="75" t="s">
-        <v>666</v>
-      </c>
-      <c r="AR42" s="117" t="s">
-        <v>868</v>
-      </c>
-      <c r="AS42" s="128" t="s">
-        <v>869</v>
-      </c>
-      <c r="AT42" s="117" t="s">
-        <v>870</v>
-      </c>
-      <c r="AU42" s="117"/>
+        <v>664</v>
+      </c>
+      <c r="AR42" s="113" t="s">
+        <v>864</v>
+      </c>
+      <c r="AS42" s="124" t="s">
+        <v>865</v>
+      </c>
+      <c r="AT42" s="113" t="s">
+        <v>866</v>
+      </c>
+      <c r="AU42" s="113"/>
     </row>
     <row r="43" spans="1:47" ht="93.75">
       <c r="A43" s="8">
@@ -10226,7 +10343,7 @@
         <v>221</v>
       </c>
       <c r="E43" s="12">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F43" s="44">
         <v>2</v>
@@ -10246,31 +10363,31 @@
       <c r="K43" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="L43" s="38" t="s">
+      <c r="L43" s="163" t="s">
         <v>400</v>
       </c>
-      <c r="M43" s="72">
-        <v>107</v>
-      </c>
-      <c r="N43" s="72">
+      <c r="M43" s="165">
+        <v>113</v>
+      </c>
+      <c r="N43" s="74">
         <v>2</v>
       </c>
       <c r="O43" s="72" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P43" s="75" t="s">
-        <v>668</v>
-      </c>
-      <c r="AR43" s="117" t="s">
-        <v>871</v>
-      </c>
-      <c r="AS43" s="128" t="s">
-        <v>872</v>
-      </c>
-      <c r="AT43" s="117" t="s">
-        <v>873</v>
-      </c>
-      <c r="AU43" s="117"/>
+        <v>666</v>
+      </c>
+      <c r="AR43" s="113" t="s">
+        <v>867</v>
+      </c>
+      <c r="AS43" s="124" t="s">
+        <v>868</v>
+      </c>
+      <c r="AT43" s="113" t="s">
+        <v>869</v>
+      </c>
+      <c r="AU43" s="113"/>
     </row>
     <row r="44" spans="1:47" ht="75">
       <c r="A44" s="9">
@@ -10286,7 +10403,7 @@
         <v>222</v>
       </c>
       <c r="E44" s="13">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F44" s="44" t="s">
         <v>143</v>
@@ -10306,29 +10423,31 @@
       <c r="K44" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="L44" s="38" t="s">
+      <c r="L44" s="163" t="s">
         <v>406</v>
       </c>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8">
+      <c r="M44" s="165">
+        <v>114</v>
+      </c>
+      <c r="N44" s="14">
         <v>2</v>
       </c>
-      <c r="O44" s="123" t="s">
-        <v>1078</v>
-      </c>
-      <c r="P44" s="123" t="s">
-        <v>1081</v>
-      </c>
-      <c r="AR44" s="117" t="s">
-        <v>874</v>
-      </c>
-      <c r="AS44" s="128" t="s">
-        <v>875</v>
-      </c>
-      <c r="AT44" s="117" t="s">
-        <v>876</v>
-      </c>
-      <c r="AU44" s="117"/>
+      <c r="O44" s="119" t="s">
+        <v>1073</v>
+      </c>
+      <c r="P44" s="119" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AR44" s="113" t="s">
+        <v>870</v>
+      </c>
+      <c r="AS44" s="124" t="s">
+        <v>871</v>
+      </c>
+      <c r="AT44" s="113" t="s">
+        <v>872</v>
+      </c>
+      <c r="AU44" s="113"/>
     </row>
     <row r="45" spans="1:47" ht="48.75" customHeight="1">
       <c r="A45" s="8">
@@ -10344,7 +10463,7 @@
         <v>223</v>
       </c>
       <c r="E45" s="12">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F45" s="44">
         <v>2</v>
@@ -10364,29 +10483,31 @@
       <c r="K45" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="L45" s="38" t="s">
+      <c r="L45" s="163" t="s">
         <v>408</v>
       </c>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8">
+      <c r="M45" s="165">
+        <v>115</v>
+      </c>
+      <c r="N45" s="14">
         <v>2</v>
       </c>
-      <c r="O45" s="123" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P45" s="141" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AR45" s="117" t="s">
-        <v>877</v>
-      </c>
-      <c r="AS45" s="128" t="s">
-        <v>878</v>
-      </c>
-      <c r="AT45" s="117" t="s">
-        <v>879</v>
-      </c>
-      <c r="AU45" s="117"/>
+      <c r="O45" s="119" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P45" s="137" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AR45" s="113" t="s">
+        <v>873</v>
+      </c>
+      <c r="AS45" s="124" t="s">
+        <v>874</v>
+      </c>
+      <c r="AT45" s="113" t="s">
+        <v>875</v>
+      </c>
+      <c r="AU45" s="113"/>
     </row>
     <row r="46" spans="1:47" ht="106.5" customHeight="1">
       <c r="A46" s="9">
@@ -10399,10 +10520,10 @@
         <v>224</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E46" s="13">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F46" s="8">
         <v>3</v>
@@ -10425,18 +10546,18 @@
       <c r="L46" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="M46" s="8"/>
+      <c r="M46" s="9"/>
       <c r="N46" s="8"/>
-      <c r="AR46" s="117" t="s">
-        <v>880</v>
-      </c>
-      <c r="AS46" s="128" t="s">
-        <v>881</v>
-      </c>
-      <c r="AT46" s="117" t="s">
-        <v>882</v>
-      </c>
-      <c r="AU46" s="117"/>
+      <c r="AR46" s="113" t="s">
+        <v>876</v>
+      </c>
+      <c r="AS46" s="124" t="s">
+        <v>877</v>
+      </c>
+      <c r="AT46" s="113" t="s">
+        <v>878</v>
+      </c>
+      <c r="AU46" s="113"/>
     </row>
     <row r="47" spans="1:47" ht="138" customHeight="1">
       <c r="A47" s="8">
@@ -10452,7 +10573,7 @@
         <v>236</v>
       </c>
       <c r="E47" s="12">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F47" s="46" t="s">
         <v>148</v>
@@ -10477,16 +10598,16 @@
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
-      <c r="AR47" s="117" t="s">
-        <v>883</v>
-      </c>
-      <c r="AS47" s="128" t="s">
-        <v>884</v>
-      </c>
-      <c r="AT47" s="117" t="s">
-        <v>885</v>
-      </c>
-      <c r="AU47" s="117"/>
+      <c r="AR47" s="113" t="s">
+        <v>879</v>
+      </c>
+      <c r="AS47" s="124" t="s">
+        <v>880</v>
+      </c>
+      <c r="AT47" s="113" t="s">
+        <v>881</v>
+      </c>
+      <c r="AU47" s="113"/>
     </row>
     <row r="48" spans="1:47" ht="84.75" customHeight="1">
       <c r="A48" s="9">
@@ -10502,7 +10623,7 @@
         <v>329</v>
       </c>
       <c r="E48" s="13">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>36</v>
@@ -10527,16 +10648,16 @@
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
-      <c r="AR48" s="117" t="s">
-        <v>886</v>
-      </c>
-      <c r="AS48" s="128" t="s">
-        <v>887</v>
-      </c>
-      <c r="AT48" s="117" t="s">
-        <v>888</v>
-      </c>
-      <c r="AU48" s="117"/>
+      <c r="AR48" s="113" t="s">
+        <v>882</v>
+      </c>
+      <c r="AS48" s="124" t="s">
+        <v>883</v>
+      </c>
+      <c r="AT48" s="113" t="s">
+        <v>884</v>
+      </c>
+      <c r="AU48" s="113"/>
     </row>
     <row r="49" spans="1:47" ht="93.75">
       <c r="A49" s="8">
@@ -10552,7 +10673,7 @@
         <v>243</v>
       </c>
       <c r="E49" s="12">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F49" s="44" t="s">
         <v>152</v>
@@ -10577,16 +10698,16 @@
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
-      <c r="AR49" s="117" t="s">
-        <v>889</v>
-      </c>
-      <c r="AS49" s="128" t="s">
-        <v>890</v>
-      </c>
-      <c r="AT49" s="117" t="s">
-        <v>891</v>
-      </c>
-      <c r="AU49" s="117"/>
+      <c r="AR49" s="113" t="s">
+        <v>885</v>
+      </c>
+      <c r="AS49" s="124" t="s">
+        <v>886</v>
+      </c>
+      <c r="AT49" s="113" t="s">
+        <v>887</v>
+      </c>
+      <c r="AU49" s="113"/>
     </row>
     <row r="50" spans="1:47" ht="146.25" customHeight="1">
       <c r="A50" s="9">
@@ -10602,7 +10723,7 @@
         <v>239</v>
       </c>
       <c r="E50" s="13">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>36</v>
@@ -10627,14 +10748,14 @@
       </c>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
-      <c r="AR50" s="117" t="s">
-        <v>892</v>
-      </c>
-      <c r="AS50" s="117"/>
-      <c r="AT50" s="117" t="s">
-        <v>893</v>
-      </c>
-      <c r="AU50" s="117"/>
+      <c r="AR50" s="113" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS50" s="113"/>
+      <c r="AT50" s="113" t="s">
+        <v>889</v>
+      </c>
+      <c r="AU50" s="113"/>
     </row>
     <row r="51" spans="1:47" ht="75">
       <c r="A51" s="8">
@@ -10650,7 +10771,7 @@
         <v>241</v>
       </c>
       <c r="E51" s="12">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F51" s="44">
         <v>2</v>
@@ -10668,23 +10789,23 @@
         <v>1</v>
       </c>
       <c r="K51" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="L51" s="123">
+        <v>423</v>
+      </c>
+      <c r="L51" s="119">
         <v>1602</v>
       </c>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
-      <c r="AR51" s="117" t="s">
-        <v>836</v>
-      </c>
-      <c r="AS51" s="128" t="s">
-        <v>894</v>
-      </c>
-      <c r="AT51" s="117" t="s">
-        <v>895</v>
-      </c>
-      <c r="AU51" s="117"/>
+      <c r="AR51" s="113" t="s">
+        <v>832</v>
+      </c>
+      <c r="AS51" s="124" t="s">
+        <v>890</v>
+      </c>
+      <c r="AT51" s="113" t="s">
+        <v>891</v>
+      </c>
+      <c r="AU51" s="113"/>
     </row>
     <row r="52" spans="1:47" ht="86.25" customHeight="1">
       <c r="A52" s="9">
@@ -10700,7 +10821,7 @@
         <v>321</v>
       </c>
       <c r="E52" s="13">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F52" s="44">
         <v>6</v>
@@ -10718,19 +10839,19 @@
         <v>1</v>
       </c>
       <c r="K52" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="L52" s="123">
+        <v>424</v>
+      </c>
+      <c r="L52" s="119">
         <v>12864</v>
       </c>
-      <c r="AR52" s="117" t="s">
-        <v>825</v>
-      </c>
-      <c r="AS52" s="117"/>
-      <c r="AT52" s="117" t="s">
-        <v>896</v>
-      </c>
-      <c r="AU52" s="117"/>
+      <c r="AR52" s="113" t="s">
+        <v>821</v>
+      </c>
+      <c r="AS52" s="113"/>
+      <c r="AT52" s="113" t="s">
+        <v>892</v>
+      </c>
+      <c r="AU52" s="113"/>
     </row>
     <row r="53" spans="1:47" ht="91.5" customHeight="1">
       <c r="A53" s="8">
@@ -10746,13 +10867,13 @@
         <v>254</v>
       </c>
       <c r="E53" s="12">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F53" s="8">
         <v>3</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>319</v>
@@ -10763,22 +10884,22 @@
       <c r="J53" s="64">
         <v>2</v>
       </c>
-      <c r="K53" s="123" t="s">
+      <c r="K53" s="119" t="s">
+        <v>425</v>
+      </c>
+      <c r="L53" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="L53" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="AR53" s="117" t="s">
-        <v>897</v>
-      </c>
-      <c r="AS53" s="128" t="s">
-        <v>898</v>
-      </c>
-      <c r="AT53" s="117" t="s">
-        <v>899</v>
-      </c>
-      <c r="AU53" s="117"/>
+      <c r="AR53" s="113" t="s">
+        <v>893</v>
+      </c>
+      <c r="AS53" s="124" t="s">
+        <v>894</v>
+      </c>
+      <c r="AT53" s="113" t="s">
+        <v>895</v>
+      </c>
+      <c r="AU53" s="113"/>
     </row>
     <row r="54" spans="1:47" ht="78" customHeight="1">
       <c r="A54" s="9">
@@ -10794,7 +10915,7 @@
         <v>255</v>
       </c>
       <c r="E54" s="13">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F54" s="72">
         <v>6</v>
@@ -10803,7 +10924,7 @@
         <v>323</v>
       </c>
       <c r="H54" s="72" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I54" s="13">
         <v>50</v>
@@ -10812,21 +10933,21 @@
         <v>1</v>
       </c>
       <c r="K54" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="L54" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="L54" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="AR54" s="117" t="s">
-        <v>900</v>
-      </c>
-      <c r="AS54" s="128" t="s">
-        <v>901</v>
-      </c>
-      <c r="AT54" s="117" t="s">
-        <v>902</v>
-      </c>
-      <c r="AU54" s="117"/>
+      <c r="AR54" s="113" t="s">
+        <v>896</v>
+      </c>
+      <c r="AS54" s="124" t="s">
+        <v>897</v>
+      </c>
+      <c r="AT54" s="113" t="s">
+        <v>898</v>
+      </c>
+      <c r="AU54" s="113"/>
     </row>
     <row r="55" spans="1:47" ht="93.75">
       <c r="A55" s="8">
@@ -10842,15 +10963,15 @@
         <v>256</v>
       </c>
       <c r="E55" s="12">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F55" s="8">
         <v>7</v>
       </c>
-      <c r="G55" s="88" t="s">
-        <v>733</v>
-      </c>
-      <c r="H55" s="88" t="s">
+      <c r="G55" s="86" t="s">
+        <v>731</v>
+      </c>
+      <c r="H55" s="86" t="s">
         <v>325</v>
       </c>
       <c r="I55" s="13">
@@ -10860,21 +10981,21 @@
         <v>1</v>
       </c>
       <c r="K55" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="L55" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="L55" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="AR55" s="117" t="s">
-        <v>903</v>
-      </c>
-      <c r="AS55" s="128" t="s">
-        <v>904</v>
-      </c>
-      <c r="AT55" s="117" t="s">
-        <v>905</v>
-      </c>
-      <c r="AU55" s="117"/>
+      <c r="AR55" s="113" t="s">
+        <v>899</v>
+      </c>
+      <c r="AS55" s="124" t="s">
+        <v>900</v>
+      </c>
+      <c r="AT55" s="113" t="s">
+        <v>901</v>
+      </c>
+      <c r="AU55" s="113"/>
     </row>
     <row r="56" spans="1:47" ht="93.75">
       <c r="A56" s="9">
@@ -10890,15 +11011,15 @@
         <v>60</v>
       </c>
       <c r="E56" s="13">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F56" s="8">
         <v>7</v>
       </c>
-      <c r="G56" s="88" t="s">
+      <c r="G56" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="H56" s="88" t="s">
+      <c r="H56" s="86" t="s">
         <v>327</v>
       </c>
       <c r="I56" s="13">
@@ -10908,21 +11029,21 @@
         <v>0</v>
       </c>
       <c r="K56" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="L56" s="53" t="s">
         <v>432</v>
       </c>
-      <c r="L56" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="AR56" s="117" t="s">
-        <v>906</v>
-      </c>
-      <c r="AS56" s="128" t="s">
-        <v>907</v>
-      </c>
-      <c r="AT56" s="117" t="s">
-        <v>908</v>
-      </c>
-      <c r="AU56" s="117"/>
+      <c r="AR56" s="113" t="s">
+        <v>902</v>
+      </c>
+      <c r="AS56" s="124" t="s">
+        <v>903</v>
+      </c>
+      <c r="AT56" s="113" t="s">
+        <v>904</v>
+      </c>
+      <c r="AU56" s="113"/>
     </row>
     <row r="57" spans="1:47" ht="95.25" customHeight="1">
       <c r="A57" s="8">
@@ -10938,7 +11059,7 @@
         <v>266</v>
       </c>
       <c r="E57" s="12">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F57" s="8">
         <v>9</v>
@@ -10956,21 +11077,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="L57" s="53" t="s">
-        <v>448</v>
-      </c>
-      <c r="AR57" s="117" t="s">
-        <v>909</v>
-      </c>
-      <c r="AS57" s="128" t="s">
-        <v>910</v>
-      </c>
-      <c r="AT57" s="117" t="s">
-        <v>911</v>
-      </c>
-      <c r="AU57" s="117"/>
+      <c r="AR57" s="113" t="s">
+        <v>905</v>
+      </c>
+      <c r="AS57" s="124" t="s">
+        <v>906</v>
+      </c>
+      <c r="AT57" s="113" t="s">
+        <v>907</v>
+      </c>
+      <c r="AU57" s="113"/>
     </row>
     <row r="58" spans="1:47" ht="106.5" customHeight="1">
       <c r="A58" s="9">
@@ -10986,9 +11107,9 @@
         <v>266</v>
       </c>
       <c r="E58" s="13">
-        <v>134</v>
-      </c>
-      <c r="F58" s="85">
+        <v>147</v>
+      </c>
+      <c r="F58" s="83">
         <v>2</v>
       </c>
       <c r="G58" s="72" t="s">
@@ -11004,21 +11125,21 @@
         <v>1</v>
       </c>
       <c r="K58" s="53" t="s">
+        <v>440</v>
+      </c>
+      <c r="L58" s="53" t="s">
         <v>441</v>
       </c>
-      <c r="L58" s="53" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR58" s="117" t="s">
-        <v>912</v>
-      </c>
-      <c r="AS58" s="128" t="s">
-        <v>913</v>
-      </c>
-      <c r="AT58" s="117" t="s">
-        <v>914</v>
-      </c>
-      <c r="AU58" s="117"/>
+      <c r="AR58" s="113" t="s">
+        <v>908</v>
+      </c>
+      <c r="AS58" s="124" t="s">
+        <v>909</v>
+      </c>
+      <c r="AT58" s="113" t="s">
+        <v>910</v>
+      </c>
+      <c r="AU58" s="113"/>
     </row>
     <row r="59" spans="1:47" ht="99.75" customHeight="1">
       <c r="A59" s="8">
@@ -11034,7 +11155,7 @@
         <v>266</v>
       </c>
       <c r="E59" s="12">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F59" s="72">
         <v>2</v>
@@ -11052,21 +11173,21 @@
         <v>1</v>
       </c>
       <c r="K59" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="L59" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="L59" s="53" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR59" s="117" t="s">
-        <v>915</v>
-      </c>
-      <c r="AS59" s="128" t="s">
-        <v>916</v>
-      </c>
-      <c r="AT59" s="117" t="s">
-        <v>917</v>
-      </c>
-      <c r="AU59" s="117"/>
+      <c r="AR59" s="113" t="s">
+        <v>911</v>
+      </c>
+      <c r="AS59" s="124" t="s">
+        <v>912</v>
+      </c>
+      <c r="AT59" s="113" t="s">
+        <v>913</v>
+      </c>
+      <c r="AU59" s="113"/>
     </row>
     <row r="60" spans="1:47" ht="54">
       <c r="A60" s="9">
@@ -11082,15 +11203,15 @@
         <v>266</v>
       </c>
       <c r="E60" s="13">
-        <v>136</v>
-      </c>
-      <c r="F60" s="86">
+        <v>149</v>
+      </c>
+      <c r="F60" s="84">
         <v>2</v>
       </c>
-      <c r="G60" s="87" t="s">
+      <c r="G60" s="85" t="s">
         <v>330</v>
       </c>
-      <c r="H60" s="87" t="s">
+      <c r="H60" s="85" t="s">
         <v>334</v>
       </c>
       <c r="I60" s="13">
@@ -11100,21 +11221,21 @@
         <v>3</v>
       </c>
       <c r="K60" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="L60" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="L60" s="53" t="s">
-        <v>438</v>
-      </c>
-      <c r="AR60" s="117" t="s">
-        <v>918</v>
-      </c>
-      <c r="AS60" s="128" t="s">
-        <v>919</v>
-      </c>
-      <c r="AT60" s="117" t="s">
-        <v>920</v>
-      </c>
-      <c r="AU60" s="117"/>
+      <c r="AR60" s="113" t="s">
+        <v>914</v>
+      </c>
+      <c r="AS60" s="124" t="s">
+        <v>915</v>
+      </c>
+      <c r="AT60" s="113" t="s">
+        <v>916</v>
+      </c>
+      <c r="AU60" s="113"/>
     </row>
     <row r="61" spans="1:47" ht="132" customHeight="1">
       <c r="A61" s="8">
@@ -11130,15 +11251,15 @@
         <v>267</v>
       </c>
       <c r="E61" s="12">
-        <v>137</v>
-      </c>
-      <c r="F61" s="135" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G61" s="87" t="s">
-        <v>539</v>
-      </c>
-      <c r="H61" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="131" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G61" s="85" t="s">
+        <v>538</v>
+      </c>
+      <c r="H61" s="85" t="s">
         <v>333</v>
       </c>
       <c r="I61" s="13">
@@ -11148,21 +11269,21 @@
         <v>1</v>
       </c>
       <c r="K61" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="L61" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="L61" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="AR61" s="117" t="s">
-        <v>921</v>
-      </c>
-      <c r="AS61" s="128" t="s">
-        <v>922</v>
-      </c>
-      <c r="AT61" s="117" t="s">
-        <v>923</v>
-      </c>
-      <c r="AU61" s="117"/>
+      <c r="AR61" s="113" t="s">
+        <v>917</v>
+      </c>
+      <c r="AS61" s="124" t="s">
+        <v>918</v>
+      </c>
+      <c r="AT61" s="113" t="s">
+        <v>919</v>
+      </c>
+      <c r="AU61" s="113"/>
     </row>
     <row r="62" spans="1:47" ht="153.75" customHeight="1">
       <c r="A62" s="9">
@@ -11178,7 +11299,7 @@
         <v>276</v>
       </c>
       <c r="E62" s="13">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>35</v>
@@ -11196,21 +11317,21 @@
         <v>2</v>
       </c>
       <c r="K62" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="L62" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="L62" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="AR62" s="117" t="s">
-        <v>924</v>
-      </c>
-      <c r="AS62" s="128" t="s">
-        <v>925</v>
-      </c>
-      <c r="AT62" s="117" t="s">
-        <v>926</v>
-      </c>
-      <c r="AU62" s="117"/>
+      <c r="AR62" s="113" t="s">
+        <v>920</v>
+      </c>
+      <c r="AS62" s="124" t="s">
+        <v>921</v>
+      </c>
+      <c r="AT62" s="113" t="s">
+        <v>922</v>
+      </c>
+      <c r="AU62" s="113"/>
     </row>
     <row r="63" spans="1:47" ht="37.5">
       <c r="A63" s="8">
@@ -11226,7 +11347,7 @@
         <v>278</v>
       </c>
       <c r="E63" s="12">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>35</v>
@@ -11240,25 +11361,25 @@
       <c r="I63" s="13">
         <v>59</v>
       </c>
-      <c r="J63" s="123">
+      <c r="J63" s="119">
         <v>5</v>
       </c>
-      <c r="K63" s="123" t="s">
+      <c r="K63" s="119" t="s">
+        <v>518</v>
+      </c>
+      <c r="L63" s="119" t="s">
         <v>519</v>
       </c>
-      <c r="L63" s="123" t="s">
-        <v>520</v>
-      </c>
-      <c r="AR63" s="117" t="s">
-        <v>927</v>
-      </c>
-      <c r="AS63" s="128" t="s">
-        <v>928</v>
-      </c>
-      <c r="AT63" s="117" t="s">
-        <v>929</v>
-      </c>
-      <c r="AU63" s="117"/>
+      <c r="AR63" s="113" t="s">
+        <v>923</v>
+      </c>
+      <c r="AS63" s="124" t="s">
+        <v>924</v>
+      </c>
+      <c r="AT63" s="113" t="s">
+        <v>925</v>
+      </c>
+      <c r="AU63" s="113"/>
     </row>
     <row r="64" spans="1:47" ht="40.5">
       <c r="A64" s="9">
@@ -11274,7 +11395,7 @@
         <v>279</v>
       </c>
       <c r="E64" s="13">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F64" s="34" t="s">
         <v>35</v>
@@ -11288,14 +11409,14 @@
       <c r="I64" s="13">
         <v>60</v>
       </c>
-      <c r="J64" s="123">
+      <c r="J64" s="119">
         <v>5</v>
       </c>
-      <c r="K64" s="123" t="s">
+      <c r="K64" s="119" t="s">
+        <v>520</v>
+      </c>
+      <c r="L64" s="119" t="s">
         <v>521</v>
-      </c>
-      <c r="L64" s="123" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="40.5">
@@ -11312,7 +11433,7 @@
         <v>411</v>
       </c>
       <c r="E65" s="12">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F65" s="34" t="s">
         <v>35</v>
@@ -11327,13 +11448,13 @@
         <v>61</v>
       </c>
       <c r="J65" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K65" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="L65" s="45" t="s">
         <v>512</v>
-      </c>
-      <c r="K65" s="44" t="s">
-        <v>511</v>
-      </c>
-      <c r="L65" s="45" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="69.75" customHeight="1">
@@ -11350,7 +11471,7 @@
         <v>412</v>
       </c>
       <c r="E66" s="13">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F66" s="34" t="s">
         <v>35</v>
@@ -11365,30 +11486,30 @@
         <v>62</v>
       </c>
       <c r="J66" s="60" t="s">
+        <v>513</v>
+      </c>
+      <c r="K66" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="K66" s="44" t="s">
-        <v>515</v>
-      </c>
       <c r="L66" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="67.5">
       <c r="A67" s="8">
         <v>62</v>
       </c>
-      <c r="B67" s="89">
+      <c r="B67" s="87">
         <v>4</v>
       </c>
-      <c r="C67" s="89" t="s">
+      <c r="C67" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="90" t="s">
+      <c r="D67" s="88" t="s">
         <v>175</v>
       </c>
       <c r="E67" s="12">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F67" s="34" t="s">
         <v>35</v>
@@ -11403,30 +11524,30 @@
         <v>63</v>
       </c>
       <c r="J67" s="60" t="s">
+        <v>515</v>
+      </c>
+      <c r="K67" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="K67" s="44" t="s">
+      <c r="L67" s="45" t="s">
         <v>517</v>
-      </c>
-      <c r="L67" s="45" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="40.5">
       <c r="A68" s="9">
         <v>63</v>
       </c>
-      <c r="B68" s="91">
+      <c r="B68" s="89">
         <v>4</v>
       </c>
-      <c r="C68" s="89" t="s">
+      <c r="C68" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="90" t="s">
+      <c r="D68" s="88" t="s">
         <v>176</v>
       </c>
       <c r="E68" s="13">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F68" s="34" t="s">
         <v>35</v>
@@ -11441,13 +11562,13 @@
         <v>64</v>
       </c>
       <c r="J68" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="K68" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="L68" s="45" t="s">
         <v>524</v>
-      </c>
-      <c r="K68" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="L68" s="45" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="40.5">
@@ -11464,7 +11585,7 @@
         <v>183</v>
       </c>
       <c r="E69" s="12">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F69" s="34">
         <v>3</v>
@@ -11482,10 +11603,10 @@
         <v>4</v>
       </c>
       <c r="K69" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="L69" s="45" t="s">
         <v>526</v>
-      </c>
-      <c r="L69" s="45" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="81">
@@ -11502,7 +11623,7 @@
         <v>33</v>
       </c>
       <c r="E70" s="13">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F70" s="35">
         <v>3</v>
@@ -11517,13 +11638,13 @@
         <v>66</v>
       </c>
       <c r="J70" s="44" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K70" s="44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L70" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="56.25" customHeight="1">
@@ -11531,16 +11652,16 @@
         <v>66</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C71" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D71" s="39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E71" s="12">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F71" s="34">
         <v>1</v>
@@ -11558,10 +11679,10 @@
         <v>6</v>
       </c>
       <c r="K71" s="71" t="s">
+        <v>536</v>
+      </c>
+      <c r="L71" s="71" t="s">
         <v>537</v>
-      </c>
-      <c r="L71" s="71" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="54">
@@ -11578,7 +11699,7 @@
         <v>182</v>
       </c>
       <c r="E72" s="13">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F72" s="35" t="s">
         <v>35</v>
@@ -11592,14 +11713,14 @@
       <c r="I72" s="13">
         <v>68</v>
       </c>
-      <c r="J72" s="123">
+      <c r="J72" s="119">
         <v>2</v>
       </c>
-      <c r="K72" s="123" t="s">
+      <c r="K72" s="119" t="s">
+        <v>559</v>
+      </c>
+      <c r="L72" s="119" t="s">
         <v>560</v>
-      </c>
-      <c r="L72" s="123" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="121.5" customHeight="1">
@@ -11616,16 +11737,28 @@
         <v>358</v>
       </c>
       <c r="E73" s="12">
-        <v>149</v>
-      </c>
-      <c r="F73" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="81" t="s">
         <v>35</v>
       </c>
       <c r="G73" s="73" t="s">
         <v>361</v>
       </c>
-      <c r="H73" s="84" t="s">
+      <c r="H73" s="82" t="s">
         <v>362</v>
+      </c>
+      <c r="I73" s="13">
+        <v>69</v>
+      </c>
+      <c r="J73" s="119">
+        <v>1</v>
+      </c>
+      <c r="K73" s="119" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L73" s="119" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="54">
@@ -11633,16 +11766,16 @@
         <v>69</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C74" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="D74" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="D74" s="39" t="s">
-        <v>558</v>
-      </c>
       <c r="E74" s="13">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F74" s="34" t="s">
         <v>35</v>
@@ -11652,6 +11785,18 @@
       </c>
       <c r="H74" s="36" t="s">
         <v>364</v>
+      </c>
+      <c r="I74" s="13">
+        <v>70</v>
+      </c>
+      <c r="J74" s="119">
+        <v>1</v>
+      </c>
+      <c r="K74" s="119" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L74" s="141" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="132.75" customHeight="1">
@@ -11668,7 +11813,7 @@
         <v>31</v>
       </c>
       <c r="E75" s="12">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F75" s="35" t="s">
         <v>35</v>
@@ -11678,6 +11823,18 @@
       </c>
       <c r="H75" s="36" t="s">
         <v>184</v>
+      </c>
+      <c r="I75" s="13">
+        <v>71</v>
+      </c>
+      <c r="J75" s="119">
+        <v>2</v>
+      </c>
+      <c r="K75" s="119" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L75" s="119" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="108">
@@ -11691,21 +11848,32 @@
         <v>80</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E76" s="13">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F76" s="73">
         <v>3</v>
       </c>
       <c r="G76" s="73" t="s">
+        <v>492</v>
+      </c>
+      <c r="H76" s="73" t="s">
         <v>493</v>
       </c>
-      <c r="H76" s="73" t="s">
-        <v>494</v>
-      </c>
-      <c r="I76" s="8"/>
+      <c r="I76" s="13">
+        <v>72</v>
+      </c>
+      <c r="J76" s="119">
+        <v>2</v>
+      </c>
+      <c r="K76" s="119" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L76" s="119" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="77" spans="1:12" ht="54">
       <c r="A77" s="8">
@@ -11721,7 +11889,7 @@
         <v>84</v>
       </c>
       <c r="E77" s="12">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F77" s="35">
         <v>10</v>
@@ -11732,14 +11900,25 @@
       <c r="H77" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="I77" s="8"/>
+      <c r="I77" s="13">
+        <v>73</v>
+      </c>
+      <c r="J77" s="119">
+        <v>3</v>
+      </c>
+      <c r="K77" s="119" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L77" s="119" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="78" spans="1:12" ht="67.5">
       <c r="A78" s="9">
         <v>73</v>
       </c>
-      <c r="B78" s="125" t="s">
-        <v>998</v>
+      <c r="B78" s="121" t="s">
+        <v>994</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>283</v>
@@ -11748,7 +11927,7 @@
         <v>387</v>
       </c>
       <c r="E78" s="13">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F78" s="34" t="s">
         <v>368</v>
@@ -11759,7 +11938,18 @@
       <c r="H78" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="I78" s="8"/>
+      <c r="I78" s="13">
+        <v>74</v>
+      </c>
+      <c r="J78" s="119">
+        <v>1</v>
+      </c>
+      <c r="K78" s="119" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L78" s="119" t="s">
+        <v>1092</v>
+      </c>
     </row>
     <row r="79" spans="1:12" ht="81">
       <c r="A79" s="8">
@@ -11775,7 +11965,7 @@
         <v>227</v>
       </c>
       <c r="E79" s="12">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F79" s="34">
         <v>2</v>
@@ -11802,7 +11992,7 @@
         <v>389</v>
       </c>
       <c r="E80" s="13">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F80" s="34" t="s">
         <v>369</v>
@@ -11829,7 +12019,7 @@
         <v>205</v>
       </c>
       <c r="E81" s="12">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F81" s="34" t="s">
         <v>368</v>
@@ -11856,7 +12046,7 @@
         <v>285</v>
       </c>
       <c r="E82" s="13">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F82" s="34" t="s">
         <v>35</v>
@@ -11883,7 +12073,7 @@
         <v>287</v>
       </c>
       <c r="E83" s="12">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F83" s="34">
         <v>7</v>
@@ -11904,13 +12094,13 @@
         <v>35</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>393</v>
       </c>
       <c r="E84" s="13">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F84" s="34">
         <v>7</v>
@@ -11937,7 +12127,7 @@
         <v>395</v>
       </c>
       <c r="E85" s="12">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F85" s="34">
         <v>5</v>
@@ -11951,18 +12141,20 @@
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="67.5">
-      <c r="A86" s="8"/>
-      <c r="B86" s="123" t="s">
+      <c r="A86" s="9">
+        <v>81</v>
+      </c>
+      <c r="B86" s="119" t="s">
+        <v>540</v>
+      </c>
+      <c r="C86" s="119" t="s">
+        <v>539</v>
+      </c>
+      <c r="D86" s="119" t="s">
         <v>541</v>
       </c>
-      <c r="C86" s="123" t="s">
-        <v>540</v>
-      </c>
-      <c r="D86" s="123" t="s">
-        <v>542</v>
-      </c>
       <c r="E86" s="13">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F86" s="34">
         <v>5</v>
@@ -11976,18 +12168,20 @@
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="67.5">
-      <c r="A87" s="8"/>
-      <c r="B87" s="123" t="s">
-        <v>552</v>
-      </c>
-      <c r="C87" s="123" t="s">
-        <v>994</v>
+      <c r="A87" s="8">
+        <v>82</v>
+      </c>
+      <c r="B87" s="119" t="s">
+        <v>551</v>
+      </c>
+      <c r="C87" s="119" t="s">
+        <v>990</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E87" s="12">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F87" s="34">
         <v>1</v>
@@ -12001,287 +12195,352 @@
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" ht="27">
-      <c r="A88" s="8"/>
-      <c r="B88" s="123">
+      <c r="A88" s="9">
+        <v>83</v>
+      </c>
+      <c r="B88" s="119">
         <v>3</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>996</v>
-      </c>
-      <c r="D88" s="124" t="s">
-        <v>997</v>
-      </c>
-      <c r="E88" s="92">
-        <v>164</v>
+        <v>992</v>
+      </c>
+      <c r="D88" s="120" t="s">
+        <v>993</v>
+      </c>
+      <c r="E88" s="13">
+        <v>177</v>
       </c>
       <c r="F88" s="44">
         <v>1</v>
       </c>
       <c r="G88" s="44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H88" s="44" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" ht="27">
-      <c r="A89" s="8"/>
-      <c r="B89" s="123">
+      <c r="A89" s="8">
+        <v>84</v>
+      </c>
+      <c r="B89" s="119">
         <v>8</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="D89" s="124" t="s">
-        <v>1000</v>
+        <v>995</v>
+      </c>
+      <c r="D89" s="120" t="s">
+        <v>996</v>
       </c>
       <c r="E89" s="12">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F89" s="77">
         <v>4</v>
       </c>
       <c r="G89" s="77" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H89" s="78" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" ht="101.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="123">
+      <c r="A90" s="9">
+        <v>85</v>
+      </c>
+      <c r="B90" s="119">
         <v>1</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D90" s="124" t="s">
-        <v>1002</v>
+        <v>997</v>
+      </c>
+      <c r="D90" s="120" t="s">
+        <v>998</v>
       </c>
       <c r="E90" s="13">
-        <v>166</v>
-      </c>
-      <c r="F90" s="82">
-        <v>3</v>
-      </c>
-      <c r="G90" s="139" t="s">
-        <v>596</v>
-      </c>
-      <c r="H90" s="140" t="s">
+        <v>179</v>
+      </c>
+      <c r="F90" s="80" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G90" s="135" t="s">
         <v>595</v>
+      </c>
+      <c r="H90" s="136" t="s">
+        <v>594</v>
       </c>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" ht="58.5" customHeight="1">
-      <c r="A91" s="8"/>
-      <c r="B91" s="123">
+      <c r="A91" s="8">
+        <v>86</v>
+      </c>
+      <c r="B91" s="119">
         <v>3</v>
       </c>
-      <c r="C91" s="126" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D91" s="124" t="s">
-        <v>1005</v>
+      <c r="C91" s="122" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D91" s="120" t="s">
+        <v>1001</v>
       </c>
       <c r="E91" s="12">
-        <v>167</v>
-      </c>
-      <c r="F91" s="81">
-        <v>1</v>
-      </c>
-      <c r="G91" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="79" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G91" s="79" t="s">
+        <v>592</v>
+      </c>
+      <c r="H91" s="79" t="s">
         <v>593</v>
-      </c>
-      <c r="H91" s="81" t="s">
-        <v>594</v>
       </c>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" ht="27">
+      <c r="A92" s="9">
+        <v>87</v>
+      </c>
       <c r="B92" s="17">
         <v>4</v>
       </c>
-      <c r="C92" s="120" t="s">
-        <v>970</v>
-      </c>
-      <c r="D92" s="120" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F92" s="123">
+      <c r="C92" s="116" t="s">
+        <v>966</v>
+      </c>
+      <c r="D92" s="116" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E92" s="13">
+        <v>181</v>
+      </c>
+      <c r="F92" s="119">
         <v>1</v>
       </c>
-      <c r="G92" s="133" t="s">
-        <v>933</v>
-      </c>
-      <c r="H92" s="126" t="s">
-        <v>934</v>
+      <c r="G92" s="129" t="s">
+        <v>929</v>
+      </c>
+      <c r="H92" s="122" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="27">
-      <c r="B93" s="127">
+      <c r="A93" s="8">
+        <v>88</v>
+      </c>
+      <c r="B93" s="123">
         <v>2</v>
       </c>
-      <c r="C93" s="127" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D93" s="127" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G93" s="123" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H93" s="123" t="s">
-        <v>1020</v>
+      <c r="C93" s="123" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D93" s="123" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E93" s="12">
+        <v>182</v>
+      </c>
+      <c r="G93" s="119" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H93" s="119" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="82.5">
-      <c r="B94" s="127">
+      <c r="A94" s="9">
+        <v>89</v>
+      </c>
+      <c r="B94" s="123">
         <v>2</v>
       </c>
-      <c r="C94" s="127" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D94" s="127" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F94" s="123">
+      <c r="C94" s="123" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D94" s="123" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E94" s="13">
+        <v>183</v>
+      </c>
+      <c r="F94" s="119">
         <v>2</v>
       </c>
-      <c r="G94" s="134" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H94" s="134" t="s">
-        <v>608</v>
+      <c r="G94" s="130" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H94" s="130" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="27">
-      <c r="B95" s="127">
+      <c r="A95" s="8">
+        <v>90</v>
+      </c>
+      <c r="B95" s="123">
         <v>3</v>
       </c>
-      <c r="C95" s="127" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D95" s="127" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F95" s="123">
+      <c r="C95" s="123" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D95" s="123" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E95" s="12">
+        <v>184</v>
+      </c>
+      <c r="F95" s="119">
         <v>2</v>
       </c>
-      <c r="G95" s="123" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H95" s="123" t="s">
-        <v>1025</v>
+      <c r="G95" s="119" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H95" s="119" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="40.5" customHeight="1">
-      <c r="B96" s="127">
+      <c r="A96" s="9">
+        <v>91</v>
+      </c>
+      <c r="B96" s="123">
         <v>1</v>
       </c>
-      <c r="C96" s="127" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D96" s="132" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F96" s="123">
+      <c r="C96" s="123" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D96" s="128" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E96" s="13">
+        <v>185</v>
+      </c>
+      <c r="F96" s="119">
         <v>4</v>
       </c>
-      <c r="G96" s="123" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H96" s="123" t="s">
-        <v>1024</v>
+      <c r="G96" s="119" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H96" s="119" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="54">
-      <c r="B97" s="123">
+      <c r="A97" s="8">
+        <v>92</v>
+      </c>
+      <c r="B97" s="119">
         <v>1</v>
       </c>
-      <c r="C97" s="123" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D97" s="123" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F97" s="123">
+      <c r="C97" s="119" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D97" s="119" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E97" s="12">
+        <v>186</v>
+      </c>
+      <c r="F97" s="119">
         <v>2</v>
       </c>
-      <c r="G97" s="120" t="s">
-        <v>940</v>
-      </c>
-      <c r="H97" s="120" t="s">
-        <v>941</v>
+      <c r="G97" s="116" t="s">
+        <v>936</v>
+      </c>
+      <c r="H97" s="116" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="27">
-      <c r="B98" s="123">
+      <c r="A98" s="9">
+        <v>93</v>
+      </c>
+      <c r="B98" s="119">
         <v>1</v>
       </c>
-      <c r="C98" s="123" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D98" s="123" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F98" s="123">
+      <c r="C98" s="119" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D98" s="119" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E98" s="13">
+        <v>187</v>
+      </c>
+      <c r="F98" s="119">
         <v>1</v>
       </c>
-      <c r="G98" s="123" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H98" s="123" t="s">
-        <v>1027</v>
+      <c r="G98" s="119" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H98" s="119" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="99" spans="1:22">
-      <c r="B99" s="123">
+      <c r="A99" s="8">
+        <v>94</v>
+      </c>
+      <c r="B99" s="119">
         <v>1</v>
       </c>
-      <c r="F99" s="123">
+      <c r="E99" s="12">
+        <v>188</v>
+      </c>
+      <c r="F99" s="119">
         <v>1</v>
       </c>
-      <c r="G99" s="123" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H99" s="123" t="s">
-        <v>1060</v>
+      <c r="G99" s="119" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H99" s="119" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="27">
-      <c r="F100" s="123">
+      <c r="E100" s="13">
+        <v>189</v>
+      </c>
+      <c r="F100" s="119">
         <v>7</v>
       </c>
-      <c r="G100" s="123" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H100" s="123" t="s">
-        <v>1072</v>
+      <c r="G100" s="119" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H100" s="119" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="27">
-      <c r="F101" s="123">
+      <c r="E101" s="12">
+        <v>190</v>
+      </c>
+      <c r="F101" s="119">
         <v>8</v>
       </c>
-      <c r="G101" s="123" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H101" s="123" t="s">
-        <v>1074</v>
+      <c r="G101" s="119" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H101" s="119" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="102" spans="1:22">
-      <c r="F102" s="123">
+      <c r="E102" s="13">
+        <v>191</v>
+      </c>
+      <c r="F102" s="119">
         <v>2</v>
       </c>
-      <c r="G102" s="123" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H102" s="123" t="s">
-        <v>1076</v>
+      <c r="G102" s="119" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H102" s="119" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -12419,11 +12678,11 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AH8"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="I3:P3"/>
     <mergeCell ref="AO4:AQ8"/>
     <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/已有芯片-模块库汇总.xlsx
+++ b/已有芯片-模块库汇总.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23617"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EDEEC-E5AC-4D34-BF15-C53B2BDE2873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1671178A-B42D-4E65-9B90-36882452A00D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1099">
   <si>
     <t>最后更新日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4488,6 +4488,10 @@
   </si>
   <si>
     <t>正弦波发生芯片，产生SPWM，做逆变器用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GL9306光流模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5805,7 +5809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6230,6 +6234,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6290,21 +6312,6 @@
     <xf numFmtId="0" fontId="47" fillId="6" borderId="39" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6312,6 +6319,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6326,6 +6342,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6345,7 +6429,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6660,8 +6744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T55" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" topLeftCell="E76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6710,28 +6794,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
     </row>
     <row r="2" spans="1:47" ht="22.5" thickTop="1" thickBot="1">
       <c r="A2" s="65"/>
@@ -6739,52 +6823,52 @@
       <c r="C2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="154" t="s">
         <v>1095</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="155" t="s">
         <v>596</v>
       </c>
-      <c r="L2" s="150"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="167" t="s">
+      <c r="N2" s="168" t="s">
         <v>1093</v>
       </c>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="166" t="s">
+      <c r="O2" s="169"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="147" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="158"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="164"/>
       <c r="Q3" s="22" t="s">
         <v>5</v>
       </c>
@@ -6803,27 +6887,27 @@
       <c r="V3" s="132" t="s">
         <v>1030</v>
       </c>
-      <c r="AC3" s="151" t="s">
+      <c r="AC3" s="157" t="s">
         <v>686</v>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="149" t="s">
         <v>694</v>
       </c>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AO3" s="160" t="s">
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149"/>
+      <c r="AO3" s="166" t="s">
         <v>732</v>
       </c>
-      <c r="AP3" s="161"/>
-      <c r="AQ3" s="161"/>
-      <c r="AR3" s="142" t="s">
+      <c r="AP3" s="167"/>
+      <c r="AQ3" s="167"/>
+      <c r="AR3" s="148" t="s">
         <v>926</v>
       </c>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
+      <c r="AS3" s="149"/>
+      <c r="AT3" s="149"/>
+      <c r="AU3" s="149"/>
     </row>
     <row r="4" spans="1:47" ht="58.5" thickTop="1" thickBot="1">
       <c r="A4" s="4" t="s">
@@ -6898,19 +6982,19 @@
       <c r="AD4" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="143"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AO4" s="159" t="s">
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="149"/>
+      <c r="AH4" s="149"/>
+      <c r="AO4" s="165" t="s">
         <v>741</v>
       </c>
-      <c r="AP4" s="159"/>
-      <c r="AQ4" s="159"/>
-      <c r="AR4" s="144"/>
-      <c r="AS4" s="143"/>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="143"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="150"/>
+      <c r="AS4" s="149"/>
+      <c r="AT4" s="149"/>
+      <c r="AU4" s="149"/>
     </row>
     <row r="5" spans="1:47" ht="64.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="9">
@@ -6949,7 +7033,7 @@
       <c r="L5" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="M5" s="164">
+      <c r="M5" s="145">
         <v>75</v>
       </c>
       <c r="N5" s="119" t="s">
@@ -6981,13 +7065,13 @@
       <c r="AD5" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="AE5" s="143"/>
-      <c r="AF5" s="143"/>
-      <c r="AG5" s="143"/>
-      <c r="AH5" s="143"/>
-      <c r="AO5" s="159"/>
-      <c r="AP5" s="159"/>
-      <c r="AQ5" s="159"/>
+      <c r="AE5" s="149"/>
+      <c r="AF5" s="149"/>
+      <c r="AG5" s="149"/>
+      <c r="AH5" s="149"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="165"/>
       <c r="AR5" s="113" t="s">
         <v>758</v>
       </c>
@@ -7036,7 +7120,7 @@
       <c r="L6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="165">
+      <c r="M6" s="146">
         <v>76</v>
       </c>
       <c r="N6" s="71" t="s">
@@ -7070,13 +7154,13 @@
         <v>691</v>
       </c>
       <c r="AD6" s="16"/>
-      <c r="AE6" s="143"/>
-      <c r="AF6" s="143"/>
-      <c r="AG6" s="143"/>
-      <c r="AH6" s="143"/>
-      <c r="AO6" s="159"/>
-      <c r="AP6" s="159"/>
-      <c r="AQ6" s="159"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
+      <c r="AO6" s="165"/>
+      <c r="AP6" s="165"/>
+      <c r="AQ6" s="165"/>
       <c r="AR6" s="113" t="s">
         <v>761</v>
       </c>
@@ -7125,7 +7209,7 @@
       <c r="L7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="165">
+      <c r="M7" s="146">
         <v>77</v>
       </c>
       <c r="N7" s="119">
@@ -7155,13 +7239,13 @@
         <v>692</v>
       </c>
       <c r="AD7" s="16"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="143"/>
-      <c r="AG7" s="143"/>
-      <c r="AH7" s="143"/>
-      <c r="AO7" s="159"/>
-      <c r="AP7" s="159"/>
-      <c r="AQ7" s="159"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AO7" s="165"/>
+      <c r="AP7" s="165"/>
+      <c r="AQ7" s="165"/>
       <c r="AR7" s="113" t="s">
         <v>764</v>
       </c>
@@ -7210,7 +7294,7 @@
       <c r="L8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="165">
+      <c r="M8" s="146">
         <v>78</v>
       </c>
       <c r="N8" s="71">
@@ -7240,13 +7324,13 @@
         <v>693</v>
       </c>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="143"/>
-      <c r="AG8" s="143"/>
-      <c r="AH8" s="143"/>
-      <c r="AO8" s="159"/>
-      <c r="AP8" s="159"/>
-      <c r="AQ8" s="159"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AO8" s="165"/>
+      <c r="AP8" s="165"/>
+      <c r="AQ8" s="165"/>
       <c r="AR8" s="113" t="s">
         <v>767</v>
       </c>
@@ -7295,7 +7379,7 @@
       <c r="L9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="165">
+      <c r="M9" s="146">
         <v>79</v>
       </c>
       <c r="N9" s="119">
@@ -7368,7 +7452,7 @@
       <c r="L10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="165">
+      <c r="M10" s="146">
         <v>80</v>
       </c>
       <c r="N10" s="119">
@@ -7394,24 +7478,24 @@
       <c r="V10" s="132" t="s">
         <v>1059</v>
       </c>
-      <c r="W10" s="145" t="s">
+      <c r="W10" s="151" t="s">
         <v>1096</v>
       </c>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="146"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="146"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="146"/>
-      <c r="AF10" s="146"/>
-      <c r="AG10" s="146"/>
-      <c r="AH10" s="146"/>
-      <c r="AI10" s="146"/>
-      <c r="AJ10" s="146"/>
-      <c r="AK10" s="146"/>
-      <c r="AL10" s="146"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
       <c r="AR10" s="113" t="s">
         <v>773</v>
       </c>
@@ -7457,10 +7541,10 @@
       <c r="K11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="162" t="s">
+      <c r="L11" s="143" t="s">
         <v>422</v>
       </c>
-      <c r="M11" s="165">
+      <c r="M11" s="146">
         <v>81</v>
       </c>
       <c r="N11" s="71">
@@ -7564,7 +7648,7 @@
       <c r="L12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="165">
+      <c r="M12" s="146">
         <v>82</v>
       </c>
       <c r="N12" s="71">
@@ -7682,7 +7766,7 @@
       <c r="L13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="165">
+      <c r="M13" s="146">
         <v>83</v>
       </c>
       <c r="N13" s="71">
@@ -7798,7 +7882,7 @@
       <c r="L14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="165">
+      <c r="M14" s="146">
         <v>84</v>
       </c>
       <c r="N14" s="119">
@@ -7914,7 +7998,7 @@
       <c r="L15" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="M15" s="165">
+      <c r="M15" s="146">
         <v>85</v>
       </c>
       <c r="N15" s="119">
@@ -8030,7 +8114,7 @@
       <c r="L16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="165">
+      <c r="M16" s="146">
         <v>86</v>
       </c>
       <c r="N16" s="119">
@@ -8144,7 +8228,7 @@
         <v>57</v>
       </c>
       <c r="L17" s="45"/>
-      <c r="M17" s="165">
+      <c r="M17" s="146">
         <v>87</v>
       </c>
       <c r="N17" s="119">
@@ -8260,7 +8344,7 @@
       <c r="L18" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="165">
+      <c r="M18" s="146">
         <v>88</v>
       </c>
       <c r="N18" s="119">
@@ -8376,7 +8460,7 @@
       <c r="L19" s="45" t="s">
         <v>602</v>
       </c>
-      <c r="M19" s="165">
+      <c r="M19" s="146">
         <v>89</v>
       </c>
       <c r="N19" s="119">
@@ -8492,7 +8576,7 @@
       <c r="L20" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="M20" s="165">
+      <c r="M20" s="146">
         <v>90</v>
       </c>
       <c r="N20" s="71">
@@ -8594,7 +8678,7 @@
       <c r="L21" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="165">
+      <c r="M21" s="146">
         <v>91</v>
       </c>
       <c r="N21" s="71">
@@ -8694,7 +8778,7 @@
       <c r="L22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="165">
+      <c r="M22" s="146">
         <v>92</v>
       </c>
       <c r="N22" s="119">
@@ -8794,7 +8878,7 @@
       <c r="L23" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="165">
+      <c r="M23" s="146">
         <v>93</v>
       </c>
       <c r="N23" s="119">
@@ -8886,7 +8970,7 @@
       <c r="L24" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="165">
+      <c r="M24" s="146">
         <v>94</v>
       </c>
       <c r="N24" s="119">
@@ -8978,7 +9062,7 @@
       <c r="L25" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="M25" s="165">
+      <c r="M25" s="146">
         <v>95</v>
       </c>
       <c r="N25" s="119">
@@ -9070,7 +9154,7 @@
       <c r="L26" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="165">
+      <c r="M26" s="146">
         <v>96</v>
       </c>
       <c r="N26" s="119">
@@ -9162,7 +9246,7 @@
       <c r="L27" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="M27" s="165">
+      <c r="M27" s="146">
         <v>97</v>
       </c>
       <c r="N27" s="71">
@@ -9246,7 +9330,7 @@
       <c r="L28" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="M28" s="165">
+      <c r="M28" s="146">
         <v>98</v>
       </c>
       <c r="N28" s="119">
@@ -9330,7 +9414,7 @@
       <c r="L29" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="M29" s="165">
+      <c r="M29" s="146">
         <v>99</v>
       </c>
       <c r="N29" s="119">
@@ -9414,7 +9498,7 @@
       <c r="L30" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="M30" s="165">
+      <c r="M30" s="146">
         <v>100</v>
       </c>
       <c r="N30" s="119">
@@ -9498,7 +9582,7 @@
       <c r="L31" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="M31" s="165">
+      <c r="M31" s="146">
         <v>101</v>
       </c>
       <c r="N31" s="91">
@@ -9582,7 +9666,7 @@
       <c r="L32" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="M32" s="165">
+      <c r="M32" s="146">
         <v>102</v>
       </c>
       <c r="N32" s="14">
@@ -9666,7 +9750,7 @@
       <c r="L33" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="M33" s="165">
+      <c r="M33" s="146">
         <v>103</v>
       </c>
       <c r="N33" s="14">
@@ -9746,7 +9830,7 @@
       <c r="L34" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="M34" s="165">
+      <c r="M34" s="146">
         <v>104</v>
       </c>
       <c r="N34" s="14">
@@ -9826,7 +9910,7 @@
       <c r="L35" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="M35" s="165">
+      <c r="M35" s="146">
         <v>105</v>
       </c>
       <c r="N35" s="119" t="s">
@@ -9906,7 +9990,7 @@
       <c r="L36" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="M36" s="165">
+      <c r="M36" s="146">
         <v>106</v>
       </c>
       <c r="N36" s="32">
@@ -9986,7 +10070,7 @@
       <c r="L37" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="M37" s="165">
+      <c r="M37" s="146">
         <v>107</v>
       </c>
       <c r="N37" s="32">
@@ -10066,7 +10150,7 @@
       <c r="L38" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="M38" s="165">
+      <c r="M38" s="146">
         <v>108</v>
       </c>
       <c r="N38" s="32">
@@ -10126,7 +10210,7 @@
       <c r="L39" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="M39" s="165">
+      <c r="M39" s="146">
         <v>109</v>
       </c>
       <c r="N39" s="32">
@@ -10183,10 +10267,10 @@
       <c r="K40" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="L40" s="163" t="s">
+      <c r="L40" s="144" t="s">
         <v>404</v>
       </c>
-      <c r="M40" s="165">
+      <c r="M40" s="146">
         <v>110</v>
       </c>
       <c r="N40" s="32">
@@ -10246,7 +10330,7 @@
       <c r="L41" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="M41" s="165">
+      <c r="M41" s="146">
         <v>111</v>
       </c>
       <c r="N41" s="14">
@@ -10306,16 +10390,16 @@
       <c r="L42" s="139" t="s">
         <v>403</v>
       </c>
-      <c r="M42" s="165">
+      <c r="M42" s="146">
         <v>112</v>
       </c>
-      <c r="N42" s="74">
+      <c r="N42" s="171">
         <v>4</v>
       </c>
-      <c r="O42" s="72" t="s">
+      <c r="O42" s="172" t="s">
         <v>663</v>
       </c>
-      <c r="P42" s="75" t="s">
+      <c r="P42" s="173" t="s">
         <v>664</v>
       </c>
       <c r="AR42" s="113" t="s">
@@ -10363,10 +10447,10 @@
       <c r="K43" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="L43" s="163" t="s">
+      <c r="L43" s="144" t="s">
         <v>400</v>
       </c>
-      <c r="M43" s="165">
+      <c r="M43" s="146">
         <v>113</v>
       </c>
       <c r="N43" s="74">
@@ -10423,10 +10507,10 @@
       <c r="K44" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="L44" s="163" t="s">
+      <c r="L44" s="144" t="s">
         <v>406</v>
       </c>
-      <c r="M44" s="165">
+      <c r="M44" s="146">
         <v>114</v>
       </c>
       <c r="N44" s="14">
@@ -10483,10 +10567,10 @@
       <c r="K45" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="L45" s="163" t="s">
+      <c r="L45" s="144" t="s">
         <v>408</v>
       </c>
-      <c r="M45" s="165">
+      <c r="M45" s="146">
         <v>115</v>
       </c>
       <c r="N45" s="14">
@@ -10547,7 +10631,12 @@
         <v>410</v>
       </c>
       <c r="M46" s="9"/>
-      <c r="N46" s="8"/>
+      <c r="N46" s="119">
+        <v>1</v>
+      </c>
+      <c r="O46" s="142" t="s">
+        <v>1098</v>
+      </c>
       <c r="AR46" s="113" t="s">
         <v>876</v>
       </c>
